--- a/data/interim/Recipe_template.xlsx
+++ b/data/interim/Recipe_template.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\Downloads\Python basics\Project_V3\Python stuff\Thesis2024\data\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9080055-D25D-4F46-8091-E57F9AC0A1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD310652-F69D-4C37-9A86-FC2CE3D80250}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -635,17 +634,17 @@
     <t>tbsp</t>
   </si>
   <si>
-    <t>cloves</t>
-  </si>
-  <si>
     <t>bunch</t>
+  </si>
+  <si>
+    <t>clove</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1018,19 +1017,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2F7C9C-161E-485E-BC60-5AA8CA50977D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1049,7 +1048,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1073,7 +1072,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1089,7 +1088,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1113,7 +1112,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1129,7 +1128,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1145,7 +1144,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1153,7 +1152,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1161,7 +1160,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1169,7 +1168,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1185,7 +1184,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1212,7 +1211,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1223,7 +1222,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1231,7 +1230,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1255,7 +1254,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1263,7 +1262,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1271,7 +1270,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1311,7 +1310,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1319,7 +1318,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1327,7 +1326,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1351,7 +1350,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1359,7 +1358,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1391,7 +1390,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1399,7 +1398,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1415,7 +1414,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1423,7 +1422,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1431,7 +1430,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1447,7 +1446,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1455,7 +1454,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1463,7 +1462,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1479,7 +1478,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1487,7 +1486,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1495,7 +1494,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1511,7 +1510,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1519,7 +1518,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1527,7 +1526,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1538,7 +1537,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1546,7 +1545,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1554,7 +1553,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1565,7 +1564,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1573,7 +1572,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1597,7 +1596,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1608,7 +1607,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1616,15 +1615,15 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1632,10 +1631,10 @@
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1643,7 +1642,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1651,7 +1650,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -1659,7 +1658,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1667,7 +1666,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -1683,7 +1682,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -1691,7 +1690,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1699,7 +1698,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -1707,7 +1706,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -1715,7 +1714,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -1723,7 +1722,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -1763,7 +1762,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1771,7 +1770,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>38</v>
       </c>
@@ -1787,7 +1786,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -1795,7 +1794,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -1811,7 +1810,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -1819,7 +1818,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -1827,7 +1826,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>39</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -1843,7 +1842,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>38</v>
       </c>
@@ -1851,7 +1850,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -1867,7 +1866,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -1875,7 +1874,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -1883,7 +1882,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -1891,7 +1890,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -1899,7 +1898,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -1907,7 +1906,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -1923,7 +1922,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -1931,7 +1930,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -1947,7 +1946,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>109</v>
       </c>
@@ -1955,7 +1954,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -1963,7 +1962,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>111</v>
       </c>
@@ -1971,7 +1970,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>113</v>
       </c>
@@ -1987,7 +1986,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>114</v>
       </c>
@@ -1995,7 +1994,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>115</v>
       </c>
@@ -2003,7 +2002,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>116</v>
       </c>
@@ -2011,7 +2010,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>117</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>118</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>119</v>
       </c>
@@ -2035,7 +2034,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>120</v>
       </c>
@@ -2043,7 +2042,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>121</v>
       </c>
@@ -2051,7 +2050,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>122</v>
       </c>
@@ -2059,7 +2058,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>123</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>124</v>
       </c>
@@ -2075,7 +2074,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>125</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>126</v>
       </c>
@@ -2091,7 +2090,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>127</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>128</v>
       </c>
@@ -2110,7 +2109,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>129</v>
       </c>
@@ -2118,7 +2117,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>130</v>
       </c>
@@ -2126,7 +2125,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>131</v>
       </c>
@@ -2134,7 +2133,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>132</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>133</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>134</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>135</v>
       </c>
@@ -2166,7 +2165,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>136</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>137</v>
       </c>
@@ -2182,7 +2181,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>138</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>139</v>
       </c>
@@ -2198,7 +2197,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>140</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>141</v>
       </c>
@@ -2214,7 +2213,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>142</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>139</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>140</v>
       </c>
@@ -2238,7 +2237,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>141</v>
       </c>
@@ -2246,7 +2245,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -2262,7 +2261,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>144</v>
       </c>
@@ -2270,7 +2269,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>145</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>146</v>
       </c>
@@ -2286,7 +2285,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>148</v>
       </c>
@@ -2302,7 +2301,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>149</v>
       </c>
@@ -2310,7 +2309,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>150</v>
       </c>
@@ -2318,7 +2317,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>151</v>
       </c>
@@ -2326,7 +2325,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>152</v>
       </c>
@@ -2334,7 +2333,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -2342,7 +2341,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>154</v>
       </c>
@@ -2350,7 +2349,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -2358,7 +2357,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -2366,7 +2365,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>157</v>
       </c>
@@ -2374,7 +2373,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>158</v>
       </c>
@@ -2382,7 +2381,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -2390,7 +2389,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>160</v>
       </c>
@@ -2398,7 +2397,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>161</v>
       </c>
@@ -2406,7 +2405,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>162</v>
       </c>
@@ -2414,7 +2413,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -2422,7 +2421,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>164</v>
       </c>
@@ -2430,7 +2429,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>165</v>
       </c>
@@ -2438,7 +2437,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>166</v>
       </c>
@@ -2446,7 +2445,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>167</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>168</v>
       </c>
@@ -2462,7 +2461,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>169</v>
       </c>
@@ -2470,7 +2469,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>170</v>
       </c>
@@ -2478,7 +2477,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>171</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>172</v>
       </c>
@@ -2494,7 +2493,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>173</v>
       </c>
@@ -2502,7 +2501,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>174</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>175</v>
       </c>
@@ -2518,7 +2517,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>176</v>
       </c>
@@ -2526,7 +2525,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>177</v>
       </c>
@@ -2534,7 +2533,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>178</v>
       </c>
@@ -2542,7 +2541,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>179</v>
       </c>
@@ -2550,7 +2549,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>180</v>
       </c>
@@ -2558,7 +2557,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>181</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>182</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>183</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>184</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>185</v>
       </c>
@@ -2598,7 +2597,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>186</v>
       </c>
@@ -2606,7 +2605,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>187</v>
       </c>
@@ -2614,7 +2613,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>188</v>
       </c>
@@ -2622,7 +2621,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>189</v>
       </c>
@@ -2630,7 +2629,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>190</v>
       </c>
@@ -2638,7 +2637,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>191</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>192</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>193</v>
       </c>

--- a/data/interim/Recipe_template.xlsx
+++ b/data/interim/Recipe_template.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\Downloads\Python basics\Project_V3\Python stuff\Thesis2024\data\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C8646D-5EFF-49E7-8DC5-30638BF09A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{217838E8-F890-4343-AD12-60484D5C3E1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$523</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$529</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="537">
   <si>
     <t>Ingredient</t>
   </si>
@@ -1615,13 +1613,49 @@
   </si>
   <si>
     <t>slice</t>
+  </si>
+  <si>
+    <t>Cononut milk</t>
+  </si>
+  <si>
+    <t>Nutritional yeast</t>
+  </si>
+  <si>
+    <t>Mushrooms</t>
+  </si>
+  <si>
+    <t>Broth vegetables</t>
+  </si>
+  <si>
+    <t>Broth beef</t>
+  </si>
+  <si>
+    <t>Broth poultry</t>
+  </si>
+  <si>
+    <t>Tomato paste</t>
+  </si>
+  <si>
+    <t>Cheese from Cow milk</t>
+  </si>
+  <si>
+    <t>Cheese from Sheep milk</t>
+  </si>
+  <si>
+    <t>Cheese from Goat milk</t>
+  </si>
+  <si>
+    <t>Cheese from Buffalo milk</t>
+  </si>
+  <si>
+    <t>Sugar from beet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1664,10 +1698,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2001,20 +2036,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86538218-F9F5-4D5B-9E7F-7331551DCECE}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D523"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="D525" sqref="D525"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2026,7 +2060,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2034,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2042,7 +2076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2050,7 +2084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2058,7 +2092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2066,7 +2100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2074,7 +2108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2082,7 +2116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -2090,7 +2124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -2098,7 +2132,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -2106,7 +2140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -2114,7 +2148,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -2122,7 +2156,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -2130,7 +2164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>202</v>
       </c>
@@ -2138,7 +2172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>203</v>
       </c>
@@ -2146,7 +2180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -2154,7 +2188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>205</v>
       </c>
@@ -2162,7 +2196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>206</v>
       </c>
@@ -2170,7 +2204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>207</v>
       </c>
@@ -2178,7 +2212,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -2186,7 +2220,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>209</v>
       </c>
@@ -2194,7 +2228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>210</v>
       </c>
@@ -2202,7 +2236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>211</v>
       </c>
@@ -2210,7 +2244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>212</v>
       </c>
@@ -2218,7 +2252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>213</v>
       </c>
@@ -2226,7 +2260,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>214</v>
       </c>
@@ -2234,7 +2268,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>215</v>
       </c>
@@ -2242,7 +2276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2250,7 +2284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>216</v>
       </c>
@@ -2258,7 +2292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2266,7 +2300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2274,7 +2308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2282,7 +2316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -2290,7 +2324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2298,7 +2332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -2306,7 +2340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2314,7 +2348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -2322,7 +2356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>217</v>
       </c>
@@ -2330,7 +2364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>218</v>
       </c>
@@ -2338,7 +2372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>219</v>
       </c>
@@ -2346,7 +2380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>220</v>
       </c>
@@ -2354,7 +2388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>221</v>
       </c>
@@ -2362,7 +2396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>222</v>
       </c>
@@ -2370,7 +2404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>223</v>
       </c>
@@ -2378,7 +2412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -2386,7 +2420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -2394,7 +2428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2402,18 +2436,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>23</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2421,18 +2452,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>25</v>
       </c>
-      <c r="B51">
-        <v>455</v>
-      </c>
       <c r="C51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -2440,7 +2468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>225</v>
       </c>
@@ -2448,7 +2476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>226</v>
       </c>
@@ -2456,7 +2484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -2464,7 +2492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>227</v>
       </c>
@@ -2472,7 +2500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -2480,7 +2508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -2488,7 +2516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>523</v>
       </c>
@@ -2496,15 +2524,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>536</v>
       </c>
       <c r="C60" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -2512,7 +2540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -2520,7 +2548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -2528,7 +2556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -2536,7 +2564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -2544,7 +2572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -2552,7 +2580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -2560,7 +2588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -2568,7 +2596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -2576,7 +2604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -2584,7 +2612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>228</v>
       </c>
@@ -2592,7 +2620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>229</v>
       </c>
@@ -2600,7 +2628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>230</v>
       </c>
@@ -2608,7 +2636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>231</v>
       </c>
@@ -2616,7 +2644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -2624,7 +2652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -2632,7 +2660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>45</v>
       </c>
@@ -2640,7 +2668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>46</v>
       </c>
@@ -2648,7 +2676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>47</v>
       </c>
@@ -2656,7 +2684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -2664,7 +2692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>49</v>
       </c>
@@ -2672,7 +2700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>50</v>
       </c>
@@ -2680,7 +2708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>232</v>
       </c>
@@ -2688,7 +2716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>233</v>
       </c>
@@ -2696,7 +2724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>51</v>
       </c>
@@ -2704,7 +2732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>519</v>
       </c>
@@ -2712,392 +2740,383 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>525</v>
+      </c>
+      <c r="C87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
         <v>520</v>
       </c>
-      <c r="C87" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="C88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
         <v>52</v>
       </c>
-      <c r="C88" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="C89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
         <v>521</v>
       </c>
-      <c r="C89" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="C90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
         <v>53</v>
       </c>
-      <c r="C90" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
         <v>54</v>
       </c>
-      <c r="C91" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="C92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
         <v>55</v>
       </c>
-      <c r="C92" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="C93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
         <v>56</v>
       </c>
-      <c r="C93" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="C94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
         <v>522</v>
       </c>
-      <c r="C94" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="C95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
         <v>57</v>
       </c>
-      <c r="C95" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="C96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
         <v>58</v>
       </c>
-      <c r="C96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="C97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
         <v>59</v>
       </c>
-      <c r="C97" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="C98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
         <v>60</v>
       </c>
-      <c r="C98" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="C99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
         <v>61</v>
       </c>
-      <c r="C99" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="C100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>62</v>
       </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="C101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
         <v>63</v>
       </c>
-      <c r="C101" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="C102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
         <v>64</v>
       </c>
-      <c r="C102" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="C103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
         <v>65</v>
       </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="C104" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
         <v>66</v>
       </c>
-      <c r="C104" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
         <v>67</v>
       </c>
-      <c r="C105" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
         <v>68</v>
       </c>
-      <c r="C106" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
         <v>69</v>
       </c>
-      <c r="C107" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
         <v>70</v>
       </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
         <v>71</v>
       </c>
-      <c r="C109" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
         <v>72</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
         <v>76</v>
       </c>
-      <c r="C111" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
         <v>77</v>
       </c>
-      <c r="C112" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
         <v>78</v>
       </c>
-      <c r="C113" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
         <v>79</v>
       </c>
-      <c r="C114" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
         <v>80</v>
       </c>
-      <c r="C115" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
         <v>81</v>
       </c>
-      <c r="C116" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
         <v>82</v>
       </c>
-      <c r="C117" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
         <v>83</v>
       </c>
-      <c r="C118" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
         <v>84</v>
       </c>
-      <c r="C119" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
         <v>85</v>
       </c>
-      <c r="C120" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
         <v>86</v>
       </c>
-      <c r="C121" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
         <v>87</v>
       </c>
-      <c r="C122" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
         <v>88</v>
       </c>
-      <c r="C123" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
         <v>89</v>
       </c>
-      <c r="C124" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
         <v>90</v>
       </c>
-      <c r="C125" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
         <v>91</v>
       </c>
-      <c r="C126" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
         <v>92</v>
       </c>
-      <c r="C127" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
         <v>93</v>
       </c>
-      <c r="C128" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="C129" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
         <v>94</v>
       </c>
-      <c r="C129" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
         <v>95</v>
       </c>
-      <c r="C130" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
         <v>96</v>
       </c>
-      <c r="C131" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
         <v>97</v>
       </c>
-      <c r="C132" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>43</v>
-      </c>
       <c r="C133" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>98</v>
       </c>
@@ -3105,7 +3124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>234</v>
       </c>
@@ -3113,7 +3132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>235</v>
       </c>
@@ -3121,7 +3140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>236</v>
       </c>
@@ -3129,7 +3148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>237</v>
       </c>
@@ -3137,7 +3156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>238</v>
       </c>
@@ -3145,7 +3164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>239</v>
       </c>
@@ -3153,7 +3172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>240</v>
       </c>
@@ -3161,7 +3180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>241</v>
       </c>
@@ -3169,7 +3188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>242</v>
       </c>
@@ -3177,7 +3196,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>243</v>
       </c>
@@ -3185,7 +3204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>244</v>
       </c>
@@ -3193,3046 +3212,3080 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
+        <v>527</v>
+      </c>
+      <c r="C146" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
         <v>99</v>
       </c>
-      <c r="C146" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
         <v>100</v>
       </c>
-      <c r="C147" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
         <v>101</v>
       </c>
-      <c r="C148" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
         <v>102</v>
       </c>
-      <c r="C149" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
         <v>103</v>
       </c>
-      <c r="C150" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
         <v>104</v>
       </c>
-      <c r="C151" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
         <v>105</v>
       </c>
-      <c r="C152" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
         <v>106</v>
       </c>
-      <c r="C153" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
         <v>107</v>
       </c>
-      <c r="C154" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
         <v>108</v>
       </c>
-      <c r="C155" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
         <v>109</v>
       </c>
-      <c r="C156" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
         <v>110</v>
       </c>
-      <c r="C157" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="C158" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
         <v>111</v>
       </c>
-      <c r="C158" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="C159" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
         <v>245</v>
       </c>
-      <c r="C159" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="C160" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
         <v>246</v>
       </c>
-      <c r="C160" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="C161" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
         <v>247</v>
       </c>
-      <c r="C161" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="C162" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
         <v>248</v>
       </c>
-      <c r="C162" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="C163" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
         <v>249</v>
       </c>
-      <c r="C163" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="C164" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
         <v>112</v>
-      </c>
-      <c r="C164" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>113</v>
       </c>
       <c r="C165" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C166" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
+        <v>114</v>
+      </c>
+      <c r="C167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
         <v>115</v>
       </c>
-      <c r="C167" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="C168" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
         <v>116</v>
       </c>
-      <c r="C168" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
         <v>117</v>
       </c>
-      <c r="C169" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
         <v>118</v>
       </c>
-      <c r="C170" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="C171" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
         <v>119</v>
       </c>
-      <c r="C171" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="C172" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
         <v>120</v>
       </c>
-      <c r="C172" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="C173" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
         <v>121</v>
       </c>
-      <c r="C173" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
         <v>250</v>
       </c>
-      <c r="C174" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
         <v>122</v>
       </c>
-      <c r="C175" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="C176" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
         <v>123</v>
       </c>
-      <c r="C176" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
         <v>124</v>
       </c>
-      <c r="C177" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
         <v>125</v>
       </c>
-      <c r="C178" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
         <v>126</v>
       </c>
-      <c r="C179" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
         <v>251</v>
       </c>
-      <c r="C180" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
         <v>252</v>
       </c>
-      <c r="C181" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
         <v>253</v>
       </c>
-      <c r="C182" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
         <v>254</v>
       </c>
-      <c r="C183" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="C184" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
         <v>255</v>
       </c>
-      <c r="C184" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
         <v>256</v>
       </c>
-      <c r="C185" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
         <v>257</v>
       </c>
-      <c r="C186" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
         <v>258</v>
       </c>
-      <c r="C187" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
         <v>259</v>
       </c>
-      <c r="C188" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="C189" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
         <v>127</v>
       </c>
-      <c r="C189" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="C190" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
         <v>260</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C191" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
         <v>128</v>
       </c>
-      <c r="C191" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="C192" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
         <v>129</v>
       </c>
-      <c r="C192" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
         <v>130</v>
       </c>
-      <c r="B193">
-        <v>455</v>
-      </c>
-      <c r="C193" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="C194" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
         <v>261</v>
       </c>
-      <c r="C194" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="C195" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
         <v>262</v>
       </c>
-      <c r="C195" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="C196" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
         <v>263</v>
       </c>
-      <c r="C196" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="C197" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
         <v>264</v>
       </c>
-      <c r="C197" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="C198" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
         <v>131</v>
       </c>
-      <c r="C198" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="C199" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
         <v>132</v>
       </c>
-      <c r="C199" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="C200" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
         <v>133</v>
       </c>
-      <c r="C200" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="C201" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
         <v>134</v>
       </c>
-      <c r="C201" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="C202" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
         <v>135</v>
       </c>
-      <c r="C202" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="C203" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
         <v>136</v>
       </c>
-      <c r="C203" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="C204" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
         <v>265</v>
       </c>
-      <c r="C204" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="C205" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
         <v>266</v>
       </c>
-      <c r="C205" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="C206" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
         <v>267</v>
       </c>
-      <c r="C206" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="C207" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
         <v>268</v>
       </c>
-      <c r="C207" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="C208" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
         <v>269</v>
       </c>
-      <c r="C208" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="C209" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
         <v>137</v>
       </c>
-      <c r="C209" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="C210" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
         <v>270</v>
       </c>
-      <c r="C210" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="C211" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
         <v>271</v>
       </c>
-      <c r="C211" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="C212" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
         <v>138</v>
       </c>
-      <c r="C212" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="C213" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
         <v>139</v>
       </c>
-      <c r="C213" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="C214" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
         <v>140</v>
       </c>
-      <c r="C214" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="C215" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
         <v>141</v>
-      </c>
-      <c r="C215" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>142</v>
       </c>
       <c r="C216" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C217" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C218" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C219" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>142</v>
+        <v>535</v>
       </c>
       <c r="C220" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>532</v>
+      </c>
+      <c r="C221" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>533</v>
+      </c>
+      <c r="C222" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>534</v>
+      </c>
+      <c r="C223" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>272</v>
+      </c>
+      <c r="C224" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>143</v>
-      </c>
-      <c r="C221" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>144</v>
-      </c>
-      <c r="C222" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>272</v>
-      </c>
-      <c r="C223" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
         <v>273</v>
       </c>
-      <c r="C224" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="C225" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
         <v>274</v>
-      </c>
-      <c r="C225" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>275</v>
       </c>
       <c r="C226" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C227" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
+        <v>276</v>
+      </c>
+      <c r="C228" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
         <v>145</v>
       </c>
-      <c r="C228" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="C229" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
         <v>146</v>
       </c>
-      <c r="C229" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="C230" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
         <v>147</v>
       </c>
-      <c r="C230" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="C231" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
         <v>148</v>
       </c>
-      <c r="C231" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="C232" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
         <v>149</v>
       </c>
-      <c r="C232" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="C233" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
         <v>277</v>
       </c>
-      <c r="C233" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="C234" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
         <v>278</v>
       </c>
-      <c r="C234" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="C235" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
         <v>279</v>
       </c>
-      <c r="C235" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="C236" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
         <v>280</v>
       </c>
-      <c r="C236" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="C237" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
         <v>281</v>
       </c>
-      <c r="C237" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="C238" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
         <v>282</v>
       </c>
-      <c r="C238" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="C239" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
         <v>283</v>
       </c>
-      <c r="C239" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="C240" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
         <v>284</v>
       </c>
-      <c r="C240" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="C241" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
         <v>285</v>
       </c>
-      <c r="C241" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="C242" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
         <v>286</v>
       </c>
-      <c r="C242" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="C243" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
         <v>287</v>
       </c>
-      <c r="C243" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="C244" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
         <v>288</v>
       </c>
-      <c r="C244" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="C245" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
         <v>289</v>
       </c>
-      <c r="C245" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="C246" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
         <v>290</v>
       </c>
-      <c r="C246" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="C247" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
         <v>291</v>
       </c>
-      <c r="C247" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="C248" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
         <v>292</v>
       </c>
-      <c r="C248" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="C249" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
         <v>293</v>
       </c>
-      <c r="C249" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="C250" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
         <v>294</v>
       </c>
-      <c r="C250" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="C251" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
         <v>295</v>
       </c>
-      <c r="C251" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="C252" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
         <v>296</v>
       </c>
-      <c r="C252" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="C253" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
         <v>297</v>
       </c>
-      <c r="C253" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="C254" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
         <v>298</v>
       </c>
-      <c r="C254" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="C255" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
         <v>299</v>
       </c>
-      <c r="C255" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="C256" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
         <v>300</v>
       </c>
-      <c r="C256" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="C257" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
         <v>301</v>
       </c>
-      <c r="C257" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="C258" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
         <v>302</v>
       </c>
-      <c r="C258" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="C259" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
         <v>303</v>
       </c>
-      <c r="C259" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="C260" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
         <v>304</v>
       </c>
-      <c r="C260" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="C261" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
         <v>305</v>
       </c>
-      <c r="C261" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="C262" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
         <v>306</v>
       </c>
-      <c r="C262" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="C263" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
         <v>307</v>
       </c>
-      <c r="C263" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="C264" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
         <v>308</v>
       </c>
-      <c r="C264" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="C265" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
         <v>309</v>
       </c>
-      <c r="C265" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="C266" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
         <v>310</v>
       </c>
-      <c r="C266" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="C267" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
         <v>311</v>
       </c>
-      <c r="C267" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="C268" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
         <v>312</v>
       </c>
-      <c r="C268" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="C269" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
         <v>313</v>
       </c>
-      <c r="C269" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="C270" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
         <v>314</v>
       </c>
-      <c r="C270" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="C271" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
         <v>315</v>
       </c>
-      <c r="C271" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="C272" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
         <v>316</v>
       </c>
-      <c r="C272" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="C273" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
         <v>317</v>
       </c>
-      <c r="C273" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="C274" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
         <v>318</v>
       </c>
-      <c r="C274" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="C275" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
         <v>319</v>
       </c>
-      <c r="C275" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="C276" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
         <v>320</v>
       </c>
-      <c r="C276" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="C277" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
         <v>321</v>
       </c>
-      <c r="C277" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="C278" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
         <v>322</v>
       </c>
-      <c r="C278" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="C279" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
         <v>323</v>
       </c>
-      <c r="C279" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="C280" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
         <v>324</v>
       </c>
-      <c r="C280" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="C281" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
         <v>325</v>
       </c>
-      <c r="C281" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="C282" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
         <v>326</v>
       </c>
-      <c r="C282" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="C283" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
         <v>327</v>
       </c>
-      <c r="C283" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="C284" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
         <v>328</v>
       </c>
-      <c r="C284" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="C285" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
         <v>329</v>
       </c>
-      <c r="C285" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="C286" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
         <v>330</v>
       </c>
-      <c r="C286" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
+      <c r="C287" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C287" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
+      <c r="C288" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C288" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="2" t="s">
+      <c r="C289" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C289" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="C290" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
         <v>334</v>
       </c>
-      <c r="C290" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="C291" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
         <v>335</v>
       </c>
-      <c r="C291" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="C292" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
         <v>336</v>
       </c>
-      <c r="C292" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="C293" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
         <v>337</v>
       </c>
-      <c r="C293" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="C294" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
         <v>338</v>
       </c>
-      <c r="C294" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="C295" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
         <v>339</v>
       </c>
-      <c r="C295" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="C296" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
         <v>340</v>
       </c>
-      <c r="C296" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="C297" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
         <v>341</v>
       </c>
-      <c r="C297" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="C298" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
         <v>342</v>
       </c>
-      <c r="C298" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="C299" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
         <v>343</v>
       </c>
-      <c r="C299" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="C300" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
         <v>344</v>
       </c>
-      <c r="C300" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="C301" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
         <v>345</v>
       </c>
-      <c r="C301" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="C302" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
         <v>346</v>
       </c>
-      <c r="C302" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="C303" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
         <v>347</v>
       </c>
-      <c r="C303" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="C304" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
         <v>348</v>
       </c>
-      <c r="C304" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="C305" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
         <v>349</v>
       </c>
-      <c r="C305" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="C306" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
         <v>350</v>
       </c>
-      <c r="C306" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="C307" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
         <v>351</v>
       </c>
-      <c r="C307" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="C308" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
         <v>352</v>
       </c>
-      <c r="C308" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="C309" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
         <v>353</v>
       </c>
-      <c r="C309" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="C310" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
         <v>354</v>
       </c>
-      <c r="C310" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="C311" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
         <v>355</v>
       </c>
-      <c r="C311" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="C312" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
         <v>150</v>
       </c>
-      <c r="C312" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="C313" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
         <v>356</v>
       </c>
-      <c r="C313" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="C314" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
         <v>357</v>
       </c>
-      <c r="C314" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="C315" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
         <v>358</v>
       </c>
-      <c r="C315" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="C316" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
         <v>151</v>
       </c>
-      <c r="C316" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="C317" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
         <v>152</v>
       </c>
-      <c r="C317" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="C318" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
         <v>153</v>
       </c>
-      <c r="C318" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="C319" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
         <v>154</v>
       </c>
-      <c r="C319" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="C320" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
         <v>155</v>
       </c>
-      <c r="C320" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="C321" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
         <v>156</v>
       </c>
-      <c r="C321" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="C322" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
         <v>157</v>
       </c>
-      <c r="C322" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="C323" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
         <v>158</v>
       </c>
-      <c r="C323" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="C324" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
         <v>159</v>
       </c>
-      <c r="C324" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="C325" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
         <v>160</v>
       </c>
-      <c r="C325" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="C326" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
         <v>161</v>
       </c>
-      <c r="C326" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="C327" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
         <v>162</v>
       </c>
-      <c r="C327" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="C328" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
         <v>163</v>
       </c>
-      <c r="C328" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="C329" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
         <v>164</v>
       </c>
-      <c r="C329" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="C330" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
         <v>165</v>
       </c>
-      <c r="C330" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="C331" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
         <v>166</v>
       </c>
-      <c r="C331" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="C332" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
         <v>167</v>
       </c>
-      <c r="C332" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="C333" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
         <v>168</v>
       </c>
-      <c r="C333" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="C334" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
         <v>169</v>
       </c>
-      <c r="C334" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="C335" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
         <v>170</v>
       </c>
-      <c r="C335" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="C336" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
         <v>171</v>
       </c>
-      <c r="C336" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="C337" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
         <v>172</v>
       </c>
-      <c r="C337" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+      <c r="C338" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
         <v>173</v>
       </c>
-      <c r="C338" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="C339" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
         <v>174</v>
       </c>
-      <c r="C339" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="C340" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
         <v>175</v>
       </c>
-      <c r="C340" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="C341" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
         <v>176</v>
       </c>
-      <c r="C341" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="C342" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
         <v>359</v>
       </c>
-      <c r="C342" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="C343" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
         <v>360</v>
       </c>
-      <c r="C343" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="C344" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
         <v>361</v>
       </c>
-      <c r="C344" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="C345" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
         <v>177</v>
       </c>
-      <c r="C345" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="C346" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
         <v>178</v>
       </c>
-      <c r="C346" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="C347" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
         <v>179</v>
       </c>
-      <c r="C347" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+      <c r="C348" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
         <v>180</v>
       </c>
-      <c r="C348" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+      <c r="C349" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
         <v>181</v>
       </c>
-      <c r="C349" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+      <c r="C350" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
         <v>362</v>
       </c>
-      <c r="C350" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+      <c r="C351" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
         <v>363</v>
       </c>
-      <c r="C351" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+      <c r="C352" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
         <v>364</v>
       </c>
-      <c r="C352" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+      <c r="C353" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
         <v>365</v>
       </c>
-      <c r="C353" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="C354" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
         <v>366</v>
       </c>
-      <c r="C354" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="C355" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
         <v>182</v>
       </c>
-      <c r="C355" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="C356" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
         <v>367</v>
       </c>
-      <c r="C356" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="C357" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
         <v>368</v>
       </c>
-      <c r="C357" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+      <c r="C358" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
         <v>369</v>
       </c>
-      <c r="C358" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="C359" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
         <v>370</v>
       </c>
-      <c r="C359" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="C360" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
         <v>371</v>
       </c>
-      <c r="C360" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+      <c r="C361" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
         <v>372</v>
       </c>
-      <c r="C361" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+      <c r="C362" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
         <v>373</v>
       </c>
-      <c r="C362" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+      <c r="C363" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
         <v>374</v>
       </c>
-      <c r="C363" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+      <c r="C364" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
         <v>183</v>
       </c>
-      <c r="C364" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+      <c r="C365" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
         <v>375</v>
       </c>
-      <c r="C365" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+      <c r="C366" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
         <v>376</v>
       </c>
-      <c r="C366" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+      <c r="C367" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
         <v>377</v>
       </c>
-      <c r="C367" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+      <c r="C368" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
         <v>378</v>
       </c>
-      <c r="C368" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="2" t="s">
+      <c r="C369" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C370" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+    <row r="371" spans="1:3">
+      <c r="A371" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C371" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
         <v>184</v>
       </c>
-      <c r="C370" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="C372" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
         <v>380</v>
       </c>
-      <c r="C371" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="C373" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
         <v>185</v>
       </c>
-      <c r="C372" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+      <c r="C374" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
         <v>186</v>
       </c>
-      <c r="C373" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+      <c r="C375" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
         <v>381</v>
       </c>
-      <c r="C374" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+      <c r="C376" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
         <v>382</v>
       </c>
-      <c r="C375" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+      <c r="C377" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
         <v>383</v>
       </c>
-      <c r="C376" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+      <c r="C378" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
         <v>384</v>
       </c>
-      <c r="C377" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+      <c r="C379" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
         <v>385</v>
       </c>
-      <c r="C378" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+      <c r="C380" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
         <v>386</v>
       </c>
-      <c r="C379" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
+      <c r="C381" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C380" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
+      <c r="C382" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C383" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
+    <row r="384" spans="1:3">
+      <c r="A384" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C382" t="s">
+      <c r="C384" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
+    <row r="385" spans="1:3">
+      <c r="A385" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C385" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
+    <row r="386" spans="1:3">
+      <c r="A386" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C384" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+      <c r="C386" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
         <v>187</v>
       </c>
-      <c r="C385" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+      <c r="C387" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
         <v>188</v>
       </c>
-      <c r="C386" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+      <c r="C388" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
         <v>392</v>
       </c>
-      <c r="C387" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+      <c r="C389" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
         <v>393</v>
       </c>
-      <c r="C388" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+      <c r="C390" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
         <v>394</v>
       </c>
-      <c r="C389" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+      <c r="C391" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
         <v>395</v>
       </c>
-      <c r="C390" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+      <c r="C392" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
         <v>396</v>
       </c>
-      <c r="C391" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+      <c r="C393" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
         <v>397</v>
       </c>
-      <c r="C392" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+      <c r="C394" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
         <v>398</v>
       </c>
-      <c r="C393" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+      <c r="C395" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
         <v>399</v>
       </c>
-      <c r="C394" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+      <c r="C396" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
         <v>400</v>
       </c>
-      <c r="C395" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+      <c r="C397" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
         <v>401</v>
       </c>
-      <c r="C396" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+      <c r="C398" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
         <v>402</v>
       </c>
-      <c r="C397" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+      <c r="C399" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
         <v>403</v>
       </c>
-      <c r="C398" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+      <c r="C400" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
         <v>404</v>
       </c>
-      <c r="C399" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+      <c r="C401" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>531</v>
+      </c>
+      <c r="C402" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
         <v>405</v>
       </c>
-      <c r="C400" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+      <c r="C403" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
         <v>406</v>
       </c>
-      <c r="C401" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+      <c r="C404" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
         <v>407</v>
       </c>
-      <c r="C402" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+      <c r="C405" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
         <v>408</v>
       </c>
-      <c r="C403" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+      <c r="C406" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
         <v>409</v>
       </c>
-      <c r="C404" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+      <c r="C407" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
         <v>410</v>
       </c>
-      <c r="C405" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+      <c r="C408" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
         <v>411</v>
       </c>
-      <c r="C406" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="C409" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
         <v>74</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C410" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
         <v>412</v>
       </c>
-      <c r="C408" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+      <c r="C411" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
         <v>413</v>
       </c>
-      <c r="C409" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+      <c r="C412" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
         <v>414</v>
       </c>
-      <c r="C410" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+      <c r="C413" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
         <v>415</v>
       </c>
-      <c r="C411" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+      <c r="C414" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
         <v>416</v>
       </c>
-      <c r="C412" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+      <c r="C415" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
         <v>417</v>
       </c>
-      <c r="C413" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+      <c r="C416" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
         <v>418</v>
       </c>
-      <c r="C414" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
+      <c r="C417" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
         <v>419</v>
       </c>
-      <c r="C415" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
+      <c r="C418" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
         <v>420</v>
       </c>
-      <c r="C416" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+      <c r="C419" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
         <v>421</v>
       </c>
-      <c r="C417" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+      <c r="C420" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
         <v>422</v>
       </c>
-      <c r="C418" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+      <c r="C421" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
         <v>423</v>
       </c>
-      <c r="C419" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+      <c r="C422" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
         <v>424</v>
       </c>
-      <c r="C420" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+      <c r="C423" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
         <v>425</v>
       </c>
-      <c r="C421" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+      <c r="C424" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
         <v>426</v>
       </c>
-      <c r="C422" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+      <c r="C425" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
         <v>427</v>
       </c>
-      <c r="C423" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+      <c r="C426" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
         <v>428</v>
       </c>
-      <c r="C424" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+      <c r="C427" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
         <v>429</v>
       </c>
-      <c r="C425" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+      <c r="C428" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
         <v>430</v>
       </c>
-      <c r="C426" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+      <c r="C429" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
         <v>431</v>
       </c>
-      <c r="C427" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+      <c r="C430" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
         <v>432</v>
       </c>
-      <c r="C428" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
+      <c r="C431" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
         <v>433</v>
       </c>
-      <c r="C429" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+      <c r="C432" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
         <v>434</v>
       </c>
-      <c r="C430" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
+      <c r="C433" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
         <v>435</v>
       </c>
-      <c r="C431" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+      <c r="C434" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
         <v>436</v>
       </c>
-      <c r="C432" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+      <c r="C435" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
         <v>437</v>
       </c>
-      <c r="C433" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
+      <c r="C436" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
         <v>438</v>
       </c>
-      <c r="C434" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
+      <c r="C437" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" t="s">
         <v>439</v>
       </c>
-      <c r="C435" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
+      <c r="C438" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" t="s">
         <v>440</v>
       </c>
-      <c r="C436" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
+      <c r="C439" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" t="s">
         <v>441</v>
       </c>
-      <c r="C437" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
+      <c r="C440" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" t="s">
         <v>442</v>
       </c>
-      <c r="C438" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
+      <c r="C441" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" t="s">
         <v>443</v>
       </c>
-      <c r="C439" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
+      <c r="C442" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
         <v>444</v>
       </c>
-      <c r="C440" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
+      <c r="C443" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
         <v>445</v>
       </c>
-      <c r="C441" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>189</v>
-      </c>
-      <c r="C442" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>446</v>
-      </c>
-      <c r="C443" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>447</v>
-      </c>
       <c r="C444" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>448</v>
+        <v>528</v>
       </c>
       <c r="C445" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>449</v>
+        <v>529</v>
       </c>
       <c r="C446" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="C447" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C448" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>191</v>
+        <v>446</v>
       </c>
       <c r="C449" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>192</v>
+        <v>447</v>
       </c>
       <c r="C450" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>193</v>
+        <v>448</v>
       </c>
       <c r="C451" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3">
       <c r="A452" t="s">
+        <v>449</v>
+      </c>
+      <c r="C452" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="s">
+        <v>450</v>
+      </c>
+      <c r="C453" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" t="s">
+        <v>190</v>
+      </c>
+      <c r="C454" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" t="s">
+        <v>191</v>
+      </c>
+      <c r="C455" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="s">
+        <v>192</v>
+      </c>
+      <c r="C456" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" t="s">
+        <v>193</v>
+      </c>
+      <c r="C457" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" t="s">
         <v>194</v>
       </c>
-      <c r="C452" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
+      <c r="C458" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" t="s">
         <v>451</v>
       </c>
-      <c r="C453" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
+      <c r="C459" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" t="s">
         <v>452</v>
       </c>
-      <c r="C454" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
+      <c r="C460" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" t="s">
         <v>453</v>
       </c>
-      <c r="C455" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
+      <c r="C461" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
         <v>454</v>
       </c>
-      <c r="C456" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
+      <c r="C462" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="s">
         <v>455</v>
       </c>
-      <c r="C457" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
+      <c r="C463" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="s">
         <v>456</v>
       </c>
-      <c r="C458" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
+      <c r="C464" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="s">
         <v>457</v>
       </c>
-      <c r="C459" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
+      <c r="C465" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="s">
         <v>458</v>
       </c>
-      <c r="C460" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
+      <c r="C466" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="s">
         <v>459</v>
       </c>
-      <c r="C461" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
+      <c r="C467" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="s">
         <v>460</v>
       </c>
-      <c r="C462" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
+      <c r="C468" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="s">
         <v>461</v>
       </c>
-      <c r="C463" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
+      <c r="C469" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="s">
         <v>462</v>
       </c>
-      <c r="C464" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
+      <c r="C470" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" t="s">
         <v>463</v>
       </c>
-      <c r="C465" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
+      <c r="C471" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" t="s">
         <v>464</v>
       </c>
-      <c r="C466" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
+      <c r="C472" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" t="s">
         <v>465</v>
       </c>
-      <c r="C467" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
+      <c r="C473" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" t="s">
         <v>466</v>
       </c>
-      <c r="C468" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
+      <c r="C474" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="s">
         <v>467</v>
       </c>
-      <c r="C469" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
+      <c r="C475" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="s">
         <v>468</v>
       </c>
-      <c r="C470" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
+      <c r="C476" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
         <v>469</v>
       </c>
-      <c r="C471" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
+      <c r="C477" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="s">
         <v>470</v>
       </c>
-      <c r="C472" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
+      <c r="C478" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
         <v>471</v>
       </c>
-      <c r="C473" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
+      <c r="C479" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
         <v>472</v>
       </c>
-      <c r="C474" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
+      <c r="C480" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
         <v>473</v>
       </c>
-      <c r="C475" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
+      <c r="C481" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
         <v>474</v>
       </c>
-      <c r="C476" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
+      <c r="C482" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="s">
         <v>475</v>
       </c>
-      <c r="C477" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
+      <c r="C483" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" t="s">
         <v>476</v>
       </c>
-      <c r="C478" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
+      <c r="C484" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" t="s">
         <v>477</v>
       </c>
-      <c r="C479" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
+      <c r="C485" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" t="s">
         <v>364</v>
       </c>
-      <c r="C480" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
+      <c r="C486" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" t="s">
         <v>478</v>
       </c>
-      <c r="C481" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
+      <c r="C487" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" t="s">
         <v>479</v>
       </c>
-      <c r="C482" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
+      <c r="C488" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" t="s">
         <v>480</v>
       </c>
-      <c r="C483" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
+      <c r="C489" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" t="s">
         <v>481</v>
       </c>
-      <c r="C484" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
+      <c r="C490" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" t="s">
         <v>482</v>
       </c>
-      <c r="C485" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
+      <c r="C491" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" t="s">
         <v>483</v>
       </c>
-      <c r="C486" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
+      <c r="C492" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" t="s">
         <v>484</v>
       </c>
-      <c r="C487" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
+      <c r="C493" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" t="s">
         <v>485</v>
       </c>
-      <c r="C488" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
+      <c r="C494" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" t="s">
         <v>486</v>
       </c>
-      <c r="C489" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
+      <c r="C495" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" t="s">
         <v>487</v>
       </c>
-      <c r="C490" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
+      <c r="C496" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
         <v>488</v>
       </c>
-      <c r="C491" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+      <c r="C497" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
         <v>489</v>
       </c>
-      <c r="C492" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+      <c r="C498" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
         <v>490</v>
       </c>
-      <c r="C493" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
+      <c r="C499" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
         <v>491</v>
       </c>
-      <c r="C494" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
+      <c r="C500" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" t="s">
         <v>492</v>
       </c>
-      <c r="C495" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
+      <c r="C501" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" t="s">
         <v>493</v>
       </c>
-      <c r="C496" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
+      <c r="C502" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" t="s">
         <v>494</v>
       </c>
-      <c r="C497" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
+      <c r="C503" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" t="s">
         <v>495</v>
       </c>
-      <c r="C498" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
+      <c r="C504" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" t="s">
         <v>496</v>
       </c>
-      <c r="C499" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
+      <c r="C505" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" t="s">
         <v>497</v>
       </c>
-      <c r="C500" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
+      <c r="C506" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" t="s">
         <v>498</v>
       </c>
-      <c r="C501" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
+      <c r="C507" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
         <v>499</v>
       </c>
-      <c r="C502" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
+      <c r="C508" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" t="s">
         <v>500</v>
       </c>
-      <c r="C503" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
+      <c r="C509" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" t="s">
         <v>501</v>
       </c>
-      <c r="C504" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
+      <c r="C510" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" t="s">
         <v>502</v>
       </c>
-      <c r="C505" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
+      <c r="C511" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" t="s">
         <v>503</v>
       </c>
-      <c r="C506" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
+      <c r="C512" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
         <v>504</v>
       </c>
-      <c r="C507" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
+      <c r="C513" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" t="s">
         <v>505</v>
       </c>
-      <c r="C508" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
+      <c r="C514" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" t="s">
         <v>506</v>
       </c>
-      <c r="C509" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
+      <c r="C515" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" t="s">
         <v>507</v>
       </c>
-      <c r="C510" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
+      <c r="C516" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
         <v>508</v>
       </c>
-      <c r="C511" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
+      <c r="C517" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" t="s">
         <v>509</v>
       </c>
-      <c r="C512" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
+      <c r="C518" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
         <v>510</v>
       </c>
-      <c r="C513" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
+      <c r="C519" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
         <v>361</v>
       </c>
-      <c r="C514" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
+      <c r="C520" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
         <v>511</v>
       </c>
-      <c r="C515" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
+      <c r="C521" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" t="s">
         <v>195</v>
       </c>
-      <c r="C516" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
+      <c r="C522" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" t="s">
         <v>512</v>
       </c>
-      <c r="C517" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
+      <c r="C523" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" t="s">
         <v>513</v>
       </c>
-      <c r="C518" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
+      <c r="C524" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" t="s">
         <v>514</v>
       </c>
-      <c r="C519" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
+      <c r="C525" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" t="s">
         <v>515</v>
       </c>
-      <c r="C520" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
+      <c r="C526" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" t="s">
         <v>516</v>
       </c>
-      <c r="C521" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
+      <c r="C527" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" t="s">
         <v>517</v>
       </c>
-      <c r="C522" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
+      <c r="C528" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" t="s">
         <v>518</v>
       </c>
-      <c r="C523" t="s">
+      <c r="C529" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D523" xr:uid="{86538218-F9F5-4D5B-9E7F-7331551DCECE}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="bunch"/>
-        <filter val="clove"/>
-        <filter val="cup"/>
-        <filter val="dl"/>
-        <filter val="tbsp"/>
-        <filter val="unit"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D529"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/interim/Recipe_template.xlsx
+++ b/data/interim/Recipe_template.xlsx
@@ -1686,7 +1686,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1694,15 +1694,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2039,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2049,4243 +2066,4770 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C53" t="s">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="A55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C59" t="s">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="A61" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C61" t="s">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="A64" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="A66" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C67" t="s">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="A68" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C68" t="s">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C69" t="s">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="A70" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C71" t="s">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" t="s">
+      <c r="A72" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C72" t="s">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="A73" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C73" t="s">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" t="s">
+      <c r="A74" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C74" t="s">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" t="s">
+      <c r="A75" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C75" t="s">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" t="s">
+      <c r="A76" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C76" t="s">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" t="s">
+      <c r="A77" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C77" t="s">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="A78" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C78" t="s">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="A79" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C79" t="s">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="A80" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C80" t="s">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="A81" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C81" t="s">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="A82" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C82" t="s">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="A83" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C83" t="s">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="A84" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C84" t="s">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" t="s">
+      <c r="A85" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C85" t="s">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" t="s">
+      <c r="A86" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C86" t="s">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" t="s">
+      <c r="A87" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C87" t="s">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" t="s">
+      <c r="A88" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C88" t="s">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" t="s">
+      <c r="A89" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C89" t="s">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" t="s">
+      <c r="A90" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" t="s">
+      <c r="A91" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C91" t="s">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" t="s">
+      <c r="A92" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C92" t="s">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="A93" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C93" t="s">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" t="s">
+      <c r="A94" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C94" t="s">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" t="s">
+      <c r="A95" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C95" t="s">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" t="s">
+      <c r="A96" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C96" t="s">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" t="s">
+      <c r="A97" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C97" t="s">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" t="s">
+      <c r="A98" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C98" t="s">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" t="s">
+      <c r="A99" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C99" t="s">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" t="s">
+      <c r="A100" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C100" t="s">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" t="s">
+      <c r="A101" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C101" t="s">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" t="s">
+      <c r="A102" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C102" t="s">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" t="s">
+      <c r="A103" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C103" t="s">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" t="s">
+      <c r="A104" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C104" t="s">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" t="s">
+      <c r="A105" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C105" t="s">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" t="s">
+      <c r="A106" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C106" t="s">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" t="s">
+      <c r="A107" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C107" t="s">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" t="s">
+      <c r="A108" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C108" t="s">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" t="s">
+      <c r="A109" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C109" t="s">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" t="s">
+      <c r="A110" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C110" t="s">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" t="s">
+      <c r="A111" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C111" t="s">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" t="s">
+      <c r="A112" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C112" t="s">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" t="s">
+      <c r="A113" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C113" t="s">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" t="s">
+      <c r="A114" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C114" t="s">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" t="s">
+      <c r="A115" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C115" t="s">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" t="s">
+      <c r="A116" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C116" t="s">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" t="s">
+      <c r="A117" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C117" t="s">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" t="s">
+      <c r="A118" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C118" t="s">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" t="s">
+      <c r="A119" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C119" t="s">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" t="s">
+      <c r="A120" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C120" t="s">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" t="s">
+      <c r="A121" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C121" t="s">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" t="s">
+      <c r="A122" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C122" t="s">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" t="s">
+      <c r="A123" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C123" t="s">
+      <c r="B123" s="3"/>
+      <c r="C123" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" t="s">
+      <c r="A124" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C124" t="s">
+      <c r="B124" s="3"/>
+      <c r="C124" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" t="s">
+      <c r="A125" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C125" t="s">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" t="s">
+      <c r="A126" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C126" t="s">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" t="s">
+      <c r="A127" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C127" t="s">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" t="s">
+      <c r="A128" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C128" t="s">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" t="s">
+      <c r="A129" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C129" t="s">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" t="s">
+      <c r="A130" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C130" t="s">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" t="s">
+      <c r="A131" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C131" t="s">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" t="s">
+      <c r="A132" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C132" t="s">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" t="s">
+      <c r="A133" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C133" t="s">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" t="s">
+      <c r="A134" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C134" t="s">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" t="s">
+      <c r="A135" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C135" t="s">
-        <v>28</v>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" t="s">
+      <c r="A136" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C136" t="s">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" t="s">
+      <c r="A137" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C137" t="s">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" t="s">
+      <c r="A138" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C138" t="s">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" t="s">
+      <c r="A139" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C139" t="s">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" t="s">
+      <c r="A140" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C140" t="s">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" t="s">
+      <c r="A141" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C141" t="s">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" t="s">
+      <c r="A142" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C142" t="s">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" t="s">
+      <c r="A143" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C143" t="s">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" t="s">
+      <c r="A144" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C144" t="s">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" t="s">
+      <c r="A145" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C145" t="s">
+      <c r="B145" s="3"/>
+      <c r="C145" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" t="s">
+      <c r="A146" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C146" t="s">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" t="s">
+      <c r="A147" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C147" t="s">
+      <c r="B147" s="3"/>
+      <c r="C147" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" t="s">
+      <c r="A148" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C148" t="s">
+      <c r="B148" s="3"/>
+      <c r="C148" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" t="s">
+      <c r="A149" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C149" t="s">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" t="s">
+      <c r="A150" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C150" t="s">
+      <c r="B150" s="3"/>
+      <c r="C150" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" t="s">
+      <c r="A151" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C151" t="s">
+      <c r="B151" s="3"/>
+      <c r="C151" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" t="s">
+      <c r="A152" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C152" t="s">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" t="s">
+      <c r="A153" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C153" t="s">
+      <c r="B153" s="3"/>
+      <c r="C153" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" t="s">
+      <c r="A154" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C154" t="s">
+      <c r="B154" s="3"/>
+      <c r="C154" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" t="s">
+      <c r="A155" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C155" t="s">
+      <c r="B155" s="3"/>
+      <c r="C155" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" t="s">
+      <c r="A156" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C156" t="s">
+      <c r="B156" s="3"/>
+      <c r="C156" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" t="s">
+      <c r="A157" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C157" t="s">
+      <c r="B157" s="3"/>
+      <c r="C157" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" t="s">
+      <c r="A158" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C158" t="s">
+      <c r="B158" s="3"/>
+      <c r="C158" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" t="s">
+      <c r="A159" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C159" t="s">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" t="s">
+      <c r="A160" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C160" t="s">
+      <c r="B160" s="3"/>
+      <c r="C160" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" t="s">
+      <c r="A161" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C161" t="s">
+      <c r="B161" s="3"/>
+      <c r="C161" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" t="s">
+      <c r="A162" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C162" t="s">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" t="s">
+      <c r="A163" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C163" t="s">
+      <c r="B163" s="3"/>
+      <c r="C163" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" t="s">
+      <c r="A164" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C164" t="s">
+      <c r="B164" s="3"/>
+      <c r="C164" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" t="s">
+      <c r="A165" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C165" t="s">
+      <c r="B165" s="3"/>
+      <c r="C165" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" t="s">
+      <c r="A166" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C166" t="s">
+      <c r="B166" s="3"/>
+      <c r="C166" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" t="s">
+      <c r="A167" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C167" t="s">
+      <c r="B167" s="3"/>
+      <c r="C167" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" t="s">
+      <c r="A168" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C168" t="s">
+      <c r="B168" s="3"/>
+      <c r="C168" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" t="s">
+      <c r="A169" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C169" t="s">
+      <c r="B169" s="3"/>
+      <c r="C169" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" t="s">
+      <c r="A170" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C170" t="s">
+      <c r="B170" s="3"/>
+      <c r="C170" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" t="s">
+      <c r="A171" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C171" t="s">
+      <c r="B171" s="3"/>
+      <c r="C171" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" t="s">
+      <c r="A172" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C172" t="s">
+      <c r="B172" s="3"/>
+      <c r="C172" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" t="s">
+      <c r="A173" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C173" t="s">
+      <c r="B173" s="3"/>
+      <c r="C173" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" t="s">
+      <c r="A174" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C174" t="s">
+      <c r="B174" s="3"/>
+      <c r="C174" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" t="s">
+      <c r="A175" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C175" t="s">
+      <c r="B175" s="3"/>
+      <c r="C175" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" t="s">
+      <c r="A176" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C176" t="s">
+      <c r="B176" s="3"/>
+      <c r="C176" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" t="s">
+      <c r="A177" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C177" t="s">
+      <c r="B177" s="3"/>
+      <c r="C177" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" t="s">
+      <c r="A178" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C178" t="s">
+      <c r="B178" s="3"/>
+      <c r="C178" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" t="s">
+      <c r="A179" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C179" t="s">
+      <c r="B179" s="3"/>
+      <c r="C179" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" t="s">
+      <c r="A180" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C180" t="s">
+      <c r="B180" s="3"/>
+      <c r="C180" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" t="s">
+      <c r="A181" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C181" t="s">
+      <c r="B181" s="3"/>
+      <c r="C181" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" t="s">
+      <c r="A182" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C182" t="s">
+      <c r="B182" s="3"/>
+      <c r="C182" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" t="s">
+      <c r="A183" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C183" t="s">
+      <c r="B183" s="3"/>
+      <c r="C183" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" t="s">
+      <c r="A184" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C184" t="s">
+      <c r="B184" s="3"/>
+      <c r="C184" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" t="s">
+      <c r="A185" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C185" t="s">
+      <c r="B185" s="3"/>
+      <c r="C185" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" t="s">
+      <c r="A186" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C186" t="s">
+      <c r="B186" s="3"/>
+      <c r="C186" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" t="s">
+      <c r="A187" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C187" t="s">
+      <c r="B187" s="3"/>
+      <c r="C187" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" t="s">
+      <c r="A188" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C188" t="s">
+      <c r="B188" s="3"/>
+      <c r="C188" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" t="s">
+      <c r="A189" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C189" t="s">
+      <c r="B189" s="3"/>
+      <c r="C189" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" t="s">
+      <c r="A190" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C190" t="s">
+      <c r="B190" s="3"/>
+      <c r="C190" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" t="s">
+      <c r="A191" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C191" t="s">
+      <c r="B191" s="3"/>
+      <c r="C191" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" t="s">
+      <c r="A192" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C192" t="s">
+      <c r="B192" s="3"/>
+      <c r="C192" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" t="s">
+      <c r="A193" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C193" t="s">
+      <c r="B193" s="3"/>
+      <c r="C193" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" t="s">
+      <c r="A194" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C194" t="s">
+      <c r="B194" s="3"/>
+      <c r="C194" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" t="s">
+      <c r="A195" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C195" t="s">
+      <c r="B195" s="3"/>
+      <c r="C195" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" t="s">
+      <c r="A196" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C196" t="s">
+      <c r="B196" s="3"/>
+      <c r="C196" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" t="s">
+      <c r="A197" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C197" t="s">
+      <c r="B197" s="3"/>
+      <c r="C197" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" t="s">
+      <c r="A198" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C198" t="s">
+      <c r="B198" s="3"/>
+      <c r="C198" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" t="s">
+      <c r="A199" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C199" t="s">
+      <c r="B199" s="3"/>
+      <c r="C199" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" t="s">
+      <c r="A200" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C200" t="s">
+      <c r="B200" s="3"/>
+      <c r="C200" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" t="s">
+      <c r="A201" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C201" t="s">
+      <c r="B201" s="3"/>
+      <c r="C201" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" t="s">
+      <c r="A202" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C202" t="s">
+      <c r="B202" s="3"/>
+      <c r="C202" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" t="s">
+      <c r="A203" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C203" t="s">
+      <c r="B203" s="3"/>
+      <c r="C203" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" t="s">
+      <c r="A204" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C204" t="s">
+      <c r="B204" s="3"/>
+      <c r="C204" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" t="s">
+      <c r="A205" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C205" t="s">
+      <c r="B205" s="3"/>
+      <c r="C205" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" t="s">
+      <c r="A206" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C206" t="s">
+      <c r="B206" s="3"/>
+      <c r="C206" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" t="s">
+      <c r="A207" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C207" t="s">
+      <c r="B207" s="3"/>
+      <c r="C207" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" t="s">
+      <c r="A208" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C208" t="s">
+      <c r="B208" s="3"/>
+      <c r="C208" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" t="s">
+      <c r="A209" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C209" t="s">
+      <c r="B209" s="3"/>
+      <c r="C209" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" t="s">
+      <c r="A210" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C210" t="s">
+      <c r="B210" s="3"/>
+      <c r="C210" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" t="s">
+      <c r="A211" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C211" t="s">
+      <c r="B211" s="3"/>
+      <c r="C211" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" t="s">
+      <c r="A212" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C212" t="s">
+      <c r="B212" s="3"/>
+      <c r="C212" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" t="s">
+      <c r="A213" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C213" t="s">
+      <c r="B213" s="3"/>
+      <c r="C213" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" t="s">
+      <c r="A214" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C214" t="s">
+      <c r="B214" s="3"/>
+      <c r="C214" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" t="s">
+      <c r="A215" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C215" t="s">
+      <c r="B215" s="3"/>
+      <c r="C215" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" t="s">
+      <c r="A216" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C216" t="s">
+      <c r="B216" s="3"/>
+      <c r="C216" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" t="s">
+      <c r="A217" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C217" t="s">
+      <c r="B217" s="3"/>
+      <c r="C217" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" t="s">
+      <c r="A218" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C218" t="s">
+      <c r="B218" s="3"/>
+      <c r="C218" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" t="s">
+      <c r="A219" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C219" t="s">
+      <c r="B219" s="3"/>
+      <c r="C219" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" t="s">
+      <c r="A220" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C220" t="s">
+      <c r="B220" s="3"/>
+      <c r="C220" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" t="s">
+      <c r="A221" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C221" t="s">
+      <c r="B221" s="3"/>
+      <c r="C221" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" t="s">
+      <c r="A222" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C222" t="s">
+      <c r="B222" s="3"/>
+      <c r="C222" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" t="s">
+      <c r="A223" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C223" t="s">
+      <c r="B223" s="3"/>
+      <c r="C223" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" t="s">
+      <c r="A224" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C224" t="s">
+      <c r="B224" s="3"/>
+      <c r="C224" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" t="s">
+      <c r="A225" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C225" t="s">
+      <c r="B225" s="3"/>
+      <c r="C225" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" t="s">
+      <c r="A226" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C226" t="s">
+      <c r="B226" s="3"/>
+      <c r="C226" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" t="s">
+      <c r="A227" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C227" t="s">
+      <c r="B227" s="3"/>
+      <c r="C227" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" t="s">
+      <c r="A228" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C228" t="s">
+      <c r="B228" s="3"/>
+      <c r="C228" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" t="s">
+      <c r="A229" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C229" t="s">
+      <c r="B229" s="3"/>
+      <c r="C229" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" t="s">
+      <c r="A230" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C230" t="s">
+      <c r="B230" s="3"/>
+      <c r="C230" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" t="s">
+      <c r="A231" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C231" t="s">
+      <c r="B231" s="3"/>
+      <c r="C231" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" t="s">
+      <c r="A232" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C232" t="s">
+      <c r="B232" s="3"/>
+      <c r="C232" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" t="s">
+      <c r="A233" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C233" t="s">
+      <c r="B233" s="3"/>
+      <c r="C233" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" t="s">
+      <c r="A234" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C234" t="s">
+      <c r="B234" s="3"/>
+      <c r="C234" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" t="s">
+      <c r="A235" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C235" t="s">
+      <c r="B235" s="3"/>
+      <c r="C235" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" t="s">
+      <c r="A236" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C236" t="s">
+      <c r="B236" s="3"/>
+      <c r="C236" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" t="s">
+      <c r="A237" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C237" t="s">
+      <c r="B237" s="3"/>
+      <c r="C237" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" t="s">
+      <c r="A238" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C238" t="s">
+      <c r="B238" s="3"/>
+      <c r="C238" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" t="s">
+      <c r="A239" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C239" t="s">
+      <c r="B239" s="3"/>
+      <c r="C239" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" t="s">
+      <c r="A240" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C240" t="s">
+      <c r="B240" s="3"/>
+      <c r="C240" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" t="s">
+      <c r="A241" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C241" t="s">
+      <c r="B241" s="3"/>
+      <c r="C241" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" t="s">
+      <c r="A242" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C242" t="s">
+      <c r="B242" s="3"/>
+      <c r="C242" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" t="s">
+      <c r="A243" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C243" t="s">
+      <c r="B243" s="3"/>
+      <c r="C243" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" t="s">
+      <c r="A244" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C244" t="s">
+      <c r="B244" s="3"/>
+      <c r="C244" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" t="s">
+      <c r="A245" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C245" t="s">
+      <c r="B245" s="3"/>
+      <c r="C245" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" t="s">
+      <c r="A246" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C246" t="s">
+      <c r="B246" s="3"/>
+      <c r="C246" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" t="s">
+      <c r="A247" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C247" t="s">
+      <c r="B247" s="3"/>
+      <c r="C247" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" t="s">
+      <c r="A248" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C248" t="s">
+      <c r="B248" s="3"/>
+      <c r="C248" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" t="s">
+      <c r="A249" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C249" t="s">
+      <c r="B249" s="3"/>
+      <c r="C249" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" t="s">
+      <c r="A250" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C250" t="s">
+      <c r="B250" s="3"/>
+      <c r="C250" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" t="s">
+      <c r="A251" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C251" t="s">
+      <c r="B251" s="3"/>
+      <c r="C251" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" t="s">
+      <c r="A252" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C252" t="s">
+      <c r="B252" s="3"/>
+      <c r="C252" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" t="s">
+      <c r="A253" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C253" t="s">
+      <c r="B253" s="3"/>
+      <c r="C253" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" t="s">
+      <c r="A254" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C254" t="s">
+      <c r="B254" s="3"/>
+      <c r="C254" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" t="s">
+      <c r="A255" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C255" t="s">
+      <c r="B255" s="3"/>
+      <c r="C255" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" t="s">
+      <c r="A256" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C256" t="s">
+      <c r="B256" s="3"/>
+      <c r="C256" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" t="s">
+      <c r="A257" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C257" t="s">
+      <c r="B257" s="3"/>
+      <c r="C257" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" t="s">
+      <c r="A258" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C258" t="s">
+      <c r="B258" s="3"/>
+      <c r="C258" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" t="s">
+      <c r="A259" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C259" t="s">
+      <c r="B259" s="3"/>
+      <c r="C259" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" t="s">
+      <c r="A260" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C260" t="s">
+      <c r="B260" s="3"/>
+      <c r="C260" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" t="s">
+      <c r="A261" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C261" t="s">
+      <c r="B261" s="3"/>
+      <c r="C261" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" t="s">
+      <c r="A262" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C262" t="s">
+      <c r="B262" s="3"/>
+      <c r="C262" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" t="s">
+      <c r="A263" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C263" t="s">
+      <c r="B263" s="3"/>
+      <c r="C263" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" t="s">
+      <c r="A264" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C264" t="s">
+      <c r="B264" s="3"/>
+      <c r="C264" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" t="s">
+      <c r="A265" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C265" t="s">
+      <c r="B265" s="3"/>
+      <c r="C265" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" t="s">
+      <c r="A266" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C266" t="s">
+      <c r="B266" s="3"/>
+      <c r="C266" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" t="s">
+      <c r="A267" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C267" t="s">
+      <c r="B267" s="3"/>
+      <c r="C267" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" t="s">
+      <c r="A268" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C268" t="s">
+      <c r="B268" s="3"/>
+      <c r="C268" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" t="s">
+      <c r="A269" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C269" t="s">
+      <c r="B269" s="3"/>
+      <c r="C269" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" t="s">
+      <c r="A270" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C270" t="s">
+      <c r="B270" s="3"/>
+      <c r="C270" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271" t="s">
+      <c r="A271" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C271" t="s">
+      <c r="B271" s="3"/>
+      <c r="C271" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" t="s">
+      <c r="A272" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C272" t="s">
+      <c r="B272" s="3"/>
+      <c r="C272" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" t="s">
+      <c r="A273" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C273" t="s">
+      <c r="B273" s="3"/>
+      <c r="C273" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274" t="s">
+      <c r="A274" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C274" t="s">
+      <c r="B274" s="3"/>
+      <c r="C274" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275" t="s">
+      <c r="A275" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C275" t="s">
+      <c r="B275" s="3"/>
+      <c r="C275" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" t="s">
+      <c r="A276" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C276" t="s">
+      <c r="B276" s="3"/>
+      <c r="C276" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" t="s">
+      <c r="A277" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C277" t="s">
+      <c r="B277" s="3"/>
+      <c r="C277" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" t="s">
+      <c r="A278" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C278" t="s">
+      <c r="B278" s="3"/>
+      <c r="C278" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" t="s">
+      <c r="A279" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C279" t="s">
+      <c r="B279" s="3"/>
+      <c r="C279" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" t="s">
+      <c r="A280" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C280" t="s">
+      <c r="B280" s="3"/>
+      <c r="C280" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" t="s">
+      <c r="A281" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C281" t="s">
+      <c r="B281" s="3"/>
+      <c r="C281" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" t="s">
+      <c r="A282" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C282" t="s">
+      <c r="B282" s="3"/>
+      <c r="C282" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" t="s">
+      <c r="A283" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C283" t="s">
+      <c r="B283" s="3"/>
+      <c r="C283" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" t="s">
+      <c r="A284" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C284" t="s">
+      <c r="B284" s="3"/>
+      <c r="C284" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" t="s">
+      <c r="A285" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C285" t="s">
+      <c r="B285" s="3"/>
+      <c r="C285" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286" t="s">
+      <c r="A286" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C286" t="s">
+      <c r="B286" s="3"/>
+      <c r="C286" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" t="s">
+      <c r="A287" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C287" t="s">
+      <c r="B287" s="3"/>
+      <c r="C287" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="2" t="s">
+      <c r="A288" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C288" t="s">
+      <c r="B288" s="3"/>
+      <c r="C288" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" s="2" t="s">
+      <c r="A289" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C289" t="s">
+      <c r="B289" s="3"/>
+      <c r="C289" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="2" t="s">
+      <c r="A290" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C290" t="s">
+      <c r="B290" s="3"/>
+      <c r="C290" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291" t="s">
+      <c r="A291" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C291" t="s">
+      <c r="B291" s="3"/>
+      <c r="C291" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" t="s">
+      <c r="A292" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C292" t="s">
+      <c r="B292" s="3"/>
+      <c r="C292" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" t="s">
+      <c r="A293" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C293" t="s">
+      <c r="B293" s="3"/>
+      <c r="C293" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" t="s">
+      <c r="A294" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C294" t="s">
+      <c r="B294" s="3"/>
+      <c r="C294" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" t="s">
+      <c r="A295" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C295" t="s">
+      <c r="B295" s="3"/>
+      <c r="C295" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" t="s">
+      <c r="A296" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C296" t="s">
+      <c r="B296" s="3"/>
+      <c r="C296" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" t="s">
+      <c r="A297" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C297" t="s">
+      <c r="B297" s="3"/>
+      <c r="C297" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298" t="s">
+      <c r="A298" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C298" t="s">
+      <c r="B298" s="3"/>
+      <c r="C298" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" t="s">
+      <c r="A299" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C299" t="s">
+      <c r="B299" s="3"/>
+      <c r="C299" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" t="s">
+      <c r="A300" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C300" t="s">
+      <c r="B300" s="3"/>
+      <c r="C300" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" t="s">
+      <c r="A301" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C301" t="s">
+      <c r="B301" s="3"/>
+      <c r="C301" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" t="s">
+      <c r="A302" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C302" t="s">
+      <c r="B302" s="3"/>
+      <c r="C302" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" t="s">
+      <c r="A303" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C303" t="s">
+      <c r="B303" s="3"/>
+      <c r="C303" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304" t="s">
+      <c r="A304" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C304" t="s">
+      <c r="B304" s="3"/>
+      <c r="C304" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" t="s">
+      <c r="A305" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C305" t="s">
+      <c r="B305" s="3"/>
+      <c r="C305" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" t="s">
+      <c r="A306" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C306" t="s">
+      <c r="B306" s="3"/>
+      <c r="C306" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307" t="s">
+      <c r="A307" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C307" t="s">
+      <c r="B307" s="3"/>
+      <c r="C307" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308" t="s">
+      <c r="A308" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C308" t="s">
+      <c r="B308" s="3"/>
+      <c r="C308" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309" t="s">
+      <c r="A309" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C309" t="s">
+      <c r="B309" s="3"/>
+      <c r="C309" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" t="s">
+      <c r="A310" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C310" t="s">
+      <c r="B310" s="3"/>
+      <c r="C310" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311" t="s">
+      <c r="A311" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C311" t="s">
+      <c r="B311" s="3"/>
+      <c r="C311" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312" t="s">
+      <c r="A312" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C312" t="s">
+      <c r="B312" s="3"/>
+      <c r="C312" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="313" spans="1:3">
-      <c r="A313" t="s">
+      <c r="A313" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C313" t="s">
+      <c r="B313" s="3"/>
+      <c r="C313" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314" t="s">
+      <c r="A314" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C314" t="s">
+      <c r="B314" s="3"/>
+      <c r="C314" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315" t="s">
+      <c r="A315" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C315" t="s">
+      <c r="B315" s="3"/>
+      <c r="C315" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="316" spans="1:3">
-      <c r="A316" t="s">
+      <c r="A316" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C316" t="s">
+      <c r="B316" s="3"/>
+      <c r="C316" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="317" spans="1:3">
-      <c r="A317" t="s">
+      <c r="A317" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C317" t="s">
+      <c r="B317" s="3"/>
+      <c r="C317" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318" t="s">
+      <c r="A318" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C318" t="s">
+      <c r="B318" s="3"/>
+      <c r="C318" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319" t="s">
+      <c r="A319" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C319" t="s">
+      <c r="B319" s="3"/>
+      <c r="C319" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320" t="s">
+      <c r="A320" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C320" t="s">
+      <c r="B320" s="3"/>
+      <c r="C320" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" t="s">
+      <c r="A321" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C321" t="s">
+      <c r="B321" s="3"/>
+      <c r="C321" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322" t="s">
+      <c r="A322" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C322" t="s">
+      <c r="B322" s="3"/>
+      <c r="C322" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323" t="s">
+      <c r="A323" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C323" t="s">
+      <c r="B323" s="3"/>
+      <c r="C323" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324" t="s">
+      <c r="A324" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C324" t="s">
+      <c r="B324" s="3"/>
+      <c r="C324" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="325" spans="1:3">
-      <c r="A325" t="s">
+      <c r="A325" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C325" t="s">
+      <c r="B325" s="3"/>
+      <c r="C325" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326" t="s">
+      <c r="A326" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C326" t="s">
+      <c r="B326" s="3"/>
+      <c r="C326" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="327" spans="1:3">
-      <c r="A327" t="s">
+      <c r="A327" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C327" t="s">
+      <c r="B327" s="3"/>
+      <c r="C327" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="328" spans="1:3">
-      <c r="A328" t="s">
+      <c r="A328" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C328" t="s">
+      <c r="B328" s="3"/>
+      <c r="C328" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="329" spans="1:3">
-      <c r="A329" t="s">
+      <c r="A329" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C329" t="s">
+      <c r="B329" s="3"/>
+      <c r="C329" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="330" spans="1:3">
-      <c r="A330" t="s">
+      <c r="A330" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C330" t="s">
+      <c r="B330" s="3"/>
+      <c r="C330" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="331" spans="1:3">
-      <c r="A331" t="s">
+      <c r="A331" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C331" t="s">
+      <c r="B331" s="3"/>
+      <c r="C331" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="332" spans="1:3">
-      <c r="A332" t="s">
+      <c r="A332" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C332" t="s">
+      <c r="B332" s="3"/>
+      <c r="C332" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="333" spans="1:3">
-      <c r="A333" t="s">
+      <c r="A333" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C333" t="s">
+      <c r="B333" s="3"/>
+      <c r="C333" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334" t="s">
+      <c r="A334" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C334" t="s">
+      <c r="B334" s="3"/>
+      <c r="C334" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" t="s">
+      <c r="A335" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C335" t="s">
+      <c r="B335" s="3"/>
+      <c r="C335" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="336" spans="1:3">
-      <c r="A336" t="s">
+      <c r="A336" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C336" t="s">
+      <c r="B336" s="3"/>
+      <c r="C336" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="337" spans="1:3">
-      <c r="A337" t="s">
+      <c r="A337" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C337" t="s">
+      <c r="B337" s="3"/>
+      <c r="C337" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338" t="s">
+      <c r="A338" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C338" t="s">
+      <c r="B338" s="3"/>
+      <c r="C338" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339" t="s">
+      <c r="A339" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C339" t="s">
+      <c r="B339" s="3"/>
+      <c r="C339" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="340" spans="1:3">
-      <c r="A340" t="s">
+      <c r="A340" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C340" t="s">
+      <c r="B340" s="3"/>
+      <c r="C340" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="341" spans="1:3">
-      <c r="A341" t="s">
+      <c r="A341" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C341" t="s">
+      <c r="B341" s="3"/>
+      <c r="C341" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="342" spans="1:3">
-      <c r="A342" t="s">
+      <c r="A342" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C342" t="s">
+      <c r="B342" s="3"/>
+      <c r="C342" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="343" spans="1:3">
-      <c r="A343" t="s">
+      <c r="A343" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C343" t="s">
+      <c r="B343" s="3"/>
+      <c r="C343" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="344" spans="1:3">
-      <c r="A344" t="s">
+      <c r="A344" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C344" t="s">
+      <c r="B344" s="3"/>
+      <c r="C344" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="A345" t="s">
+      <c r="A345" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C345" t="s">
+      <c r="B345" s="3"/>
+      <c r="C345" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="346" spans="1:3">
-      <c r="A346" t="s">
+      <c r="A346" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C346" t="s">
+      <c r="B346" s="3"/>
+      <c r="C346" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="347" spans="1:3">
-      <c r="A347" t="s">
+      <c r="A347" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C347" t="s">
+      <c r="B347" s="3"/>
+      <c r="C347" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="348" spans="1:3">
-      <c r="A348" t="s">
+      <c r="A348" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C348" t="s">
+      <c r="B348" s="3"/>
+      <c r="C348" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="349" spans="1:3">
-      <c r="A349" t="s">
+      <c r="A349" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C349" t="s">
+      <c r="B349" s="3"/>
+      <c r="C349" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" t="s">
+      <c r="A350" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C350" t="s">
+      <c r="B350" s="3"/>
+      <c r="C350" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="351" spans="1:3">
-      <c r="A351" t="s">
+      <c r="A351" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C351" t="s">
+      <c r="B351" s="3"/>
+      <c r="C351" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" t="s">
+      <c r="A352" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C352" t="s">
+      <c r="B352" s="3"/>
+      <c r="C352" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" t="s">
+      <c r="A353" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C353" t="s">
+      <c r="B353" s="3"/>
+      <c r="C353" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" t="s">
+      <c r="A354" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C354" t="s">
+      <c r="B354" s="3"/>
+      <c r="C354" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="355" spans="1:3">
-      <c r="A355" t="s">
+      <c r="A355" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C355" t="s">
+      <c r="B355" s="3"/>
+      <c r="C355" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="356" spans="1:3">
-      <c r="A356" t="s">
+      <c r="A356" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C356" t="s">
+      <c r="B356" s="3"/>
+      <c r="C356" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357" t="s">
+      <c r="A357" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C357" t="s">
+      <c r="B357" s="3"/>
+      <c r="C357" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="358" spans="1:3">
-      <c r="A358" t="s">
+      <c r="A358" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C358" t="s">
+      <c r="B358" s="3"/>
+      <c r="C358" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="359" spans="1:3">
-      <c r="A359" t="s">
+      <c r="A359" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C359" t="s">
+      <c r="B359" s="3"/>
+      <c r="C359" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="360" spans="1:3">
-      <c r="A360" t="s">
+      <c r="A360" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C360" t="s">
+      <c r="B360" s="3"/>
+      <c r="C360" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="361" spans="1:3">
-      <c r="A361" t="s">
+      <c r="A361" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C361" t="s">
+      <c r="B361" s="3"/>
+      <c r="C361" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362" t="s">
+      <c r="A362" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C362" t="s">
+      <c r="B362" s="3"/>
+      <c r="C362" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="363" spans="1:3">
-      <c r="A363" t="s">
+      <c r="A363" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C363" t="s">
+      <c r="B363" s="3"/>
+      <c r="C363" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="364" spans="1:3">
-      <c r="A364" t="s">
+      <c r="A364" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C364" t="s">
+      <c r="B364" s="3"/>
+      <c r="C364" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="365" spans="1:3">
-      <c r="A365" t="s">
+      <c r="A365" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C365" t="s">
+      <c r="B365" s="3"/>
+      <c r="C365" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="366" spans="1:3">
-      <c r="A366" t="s">
+      <c r="A366" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C366" t="s">
+      <c r="B366" s="3"/>
+      <c r="C366" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="367" spans="1:3">
-      <c r="A367" t="s">
+      <c r="A367" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C367" t="s">
+      <c r="B367" s="3"/>
+      <c r="C367" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="368" spans="1:3">
-      <c r="A368" t="s">
+      <c r="A368" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C368" t="s">
+      <c r="B368" s="3"/>
+      <c r="C368" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="369" spans="1:3">
-      <c r="A369" t="s">
+      <c r="A369" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C369" t="s">
+      <c r="B369" s="3"/>
+      <c r="C369" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="370" spans="1:3">
-      <c r="A370" s="3" t="s">
+      <c r="A370" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C370" t="s">
+      <c r="B370" s="3"/>
+      <c r="C370" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="371" spans="1:3">
-      <c r="A371" s="3" t="s">
+      <c r="A371" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C371" t="s">
+      <c r="B371" s="3"/>
+      <c r="C371" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="372" spans="1:3">
-      <c r="A372" t="s">
+      <c r="A372" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C372" t="s">
+      <c r="B372" s="3"/>
+      <c r="C372" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="373" spans="1:3">
-      <c r="A373" t="s">
+      <c r="A373" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C373" t="s">
+      <c r="B373" s="3"/>
+      <c r="C373" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="374" spans="1:3">
-      <c r="A374" t="s">
+      <c r="A374" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C374" t="s">
+      <c r="B374" s="3"/>
+      <c r="C374" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="375" spans="1:3">
-      <c r="A375" t="s">
+      <c r="A375" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C375" t="s">
+      <c r="B375" s="3"/>
+      <c r="C375" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="376" spans="1:3">
-      <c r="A376" t="s">
+      <c r="A376" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C376" t="s">
+      <c r="B376" s="3"/>
+      <c r="C376" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="377" spans="1:3">
-      <c r="A377" t="s">
+      <c r="A377" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C377" t="s">
+      <c r="B377" s="3"/>
+      <c r="C377" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="378" spans="1:3">
-      <c r="A378" t="s">
+      <c r="A378" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C378" t="s">
+      <c r="B378" s="3"/>
+      <c r="C378" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="379" spans="1:3">
-      <c r="A379" t="s">
+      <c r="A379" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C379" t="s">
+      <c r="B379" s="3"/>
+      <c r="C379" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="380" spans="1:3">
-      <c r="A380" t="s">
+      <c r="A380" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C380" t="s">
+      <c r="B380" s="3"/>
+      <c r="C380" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="381" spans="1:3">
-      <c r="A381" t="s">
+      <c r="A381" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C381" t="s">
+      <c r="B381" s="3"/>
+      <c r="C381" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="382" spans="1:3">
-      <c r="A382" s="3" t="s">
+      <c r="A382" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C382" t="s">
+      <c r="B382" s="3"/>
+      <c r="C382" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="383" spans="1:3">
-      <c r="A383" s="3" t="s">
+      <c r="A383" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C383" t="s">
+      <c r="B383" s="3"/>
+      <c r="C383" s="3" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="384" spans="1:3">
-      <c r="A384" s="3" t="s">
+      <c r="A384" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C384" t="s">
+      <c r="B384" s="3"/>
+      <c r="C384" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="385" spans="1:3">
-      <c r="A385" s="3" t="s">
+      <c r="A385" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C385" t="s">
+      <c r="B385" s="3"/>
+      <c r="C385" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="386" spans="1:3">
-      <c r="A386" s="3" t="s">
+      <c r="A386" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C386" t="s">
+      <c r="B386" s="3"/>
+      <c r="C386" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="387" spans="1:3">
-      <c r="A387" t="s">
+      <c r="A387" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C387" t="s">
+      <c r="B387" s="3"/>
+      <c r="C387" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="388" spans="1:3">
-      <c r="A388" t="s">
+      <c r="A388" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C388" t="s">
+      <c r="B388" s="3"/>
+      <c r="C388" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="389" spans="1:3">
-      <c r="A389" t="s">
+      <c r="A389" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C389" t="s">
+      <c r="B389" s="3"/>
+      <c r="C389" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="390" spans="1:3">
-      <c r="A390" t="s">
+      <c r="A390" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C390" t="s">
+      <c r="B390" s="3"/>
+      <c r="C390" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="391" spans="1:3">
-      <c r="A391" t="s">
+      <c r="A391" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C391" t="s">
+      <c r="B391" s="3"/>
+      <c r="C391" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="392" spans="1:3">
-      <c r="A392" t="s">
+      <c r="A392" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C392" t="s">
+      <c r="B392" s="3"/>
+      <c r="C392" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="393" spans="1:3">
-      <c r="A393" t="s">
+      <c r="A393" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C393" t="s">
+      <c r="B393" s="3"/>
+      <c r="C393" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="394" spans="1:3">
-      <c r="A394" t="s">
+      <c r="A394" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C394" t="s">
+      <c r="B394" s="3"/>
+      <c r="C394" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="395" spans="1:3">
-      <c r="A395" t="s">
+      <c r="A395" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C395" t="s">
+      <c r="B395" s="3"/>
+      <c r="C395" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="396" spans="1:3">
-      <c r="A396" t="s">
+      <c r="A396" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C396" t="s">
+      <c r="B396" s="3"/>
+      <c r="C396" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="397" spans="1:3">
-      <c r="A397" t="s">
+      <c r="A397" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C397" t="s">
+      <c r="B397" s="3"/>
+      <c r="C397" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="398" spans="1:3">
-      <c r="A398" t="s">
+      <c r="A398" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C398" t="s">
+      <c r="B398" s="3"/>
+      <c r="C398" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="399" spans="1:3">
-      <c r="A399" t="s">
+      <c r="A399" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C399" t="s">
+      <c r="B399" s="3"/>
+      <c r="C399" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="400" spans="1:3">
-      <c r="A400" t="s">
+      <c r="A400" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C400" t="s">
+      <c r="B400" s="3"/>
+      <c r="C400" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="401" spans="1:3">
-      <c r="A401" t="s">
+      <c r="A401" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C401" t="s">
+      <c r="B401" s="3"/>
+      <c r="C401" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="402" spans="1:3">
-      <c r="A402" t="s">
+      <c r="A402" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C402" t="s">
+      <c r="B402" s="3"/>
+      <c r="C402" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="403" spans="1:3">
-      <c r="A403" t="s">
+      <c r="A403" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C403" t="s">
+      <c r="B403" s="3"/>
+      <c r="C403" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="404" spans="1:3">
-      <c r="A404" t="s">
+      <c r="A404" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C404" t="s">
+      <c r="B404" s="3"/>
+      <c r="C404" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="405" spans="1:3">
-      <c r="A405" t="s">
+      <c r="A405" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C405" t="s">
+      <c r="B405" s="3"/>
+      <c r="C405" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="406" spans="1:3">
-      <c r="A406" t="s">
+      <c r="A406" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C406" t="s">
+      <c r="B406" s="3"/>
+      <c r="C406" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="407" spans="1:3">
-      <c r="A407" t="s">
+      <c r="A407" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C407" t="s">
+      <c r="B407" s="3"/>
+      <c r="C407" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="408" spans="1:3">
-      <c r="A408" t="s">
+      <c r="A408" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C408" t="s">
+      <c r="B408" s="3"/>
+      <c r="C408" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="409" spans="1:3">
-      <c r="A409" t="s">
+      <c r="A409" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C409" t="s">
+      <c r="B409" s="3"/>
+      <c r="C409" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="410" spans="1:3">
-      <c r="A410" t="s">
+      <c r="A410" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C410" t="s">
+      <c r="B410" s="3"/>
+      <c r="C410" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="411" spans="1:3">
-      <c r="A411" t="s">
+      <c r="A411" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C411" t="s">
+      <c r="B411" s="3"/>
+      <c r="C411" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="412" spans="1:3">
-      <c r="A412" t="s">
+      <c r="A412" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C412" t="s">
+      <c r="B412" s="3"/>
+      <c r="C412" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="413" spans="1:3">
-      <c r="A413" t="s">
+      <c r="A413" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C413" t="s">
+      <c r="B413" s="3"/>
+      <c r="C413" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="414" spans="1:3">
-      <c r="A414" t="s">
+      <c r="A414" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C414" t="s">
+      <c r="B414" s="3"/>
+      <c r="C414" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="415" spans="1:3">
-      <c r="A415" t="s">
+      <c r="A415" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C415" t="s">
+      <c r="B415" s="3"/>
+      <c r="C415" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="416" spans="1:3">
-      <c r="A416" t="s">
+      <c r="A416" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C416" t="s">
+      <c r="B416" s="3"/>
+      <c r="C416" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="417" spans="1:3">
-      <c r="A417" t="s">
+      <c r="A417" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C417" t="s">
+      <c r="B417" s="3"/>
+      <c r="C417" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="418" spans="1:3">
-      <c r="A418" t="s">
+      <c r="A418" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C418" t="s">
+      <c r="B418" s="3"/>
+      <c r="C418" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="419" spans="1:3">
-      <c r="A419" t="s">
+      <c r="A419" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C419" t="s">
+      <c r="B419" s="3"/>
+      <c r="C419" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="420" spans="1:3">
-      <c r="A420" t="s">
+      <c r="A420" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="C420" t="s">
+      <c r="B420" s="3"/>
+      <c r="C420" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="421" spans="1:3">
-      <c r="A421" t="s">
+      <c r="A421" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C421" t="s">
+      <c r="B421" s="3"/>
+      <c r="C421" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="422" spans="1:3">
-      <c r="A422" t="s">
+      <c r="A422" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C422" t="s">
+      <c r="B422" s="3"/>
+      <c r="C422" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="423" spans="1:3">
-      <c r="A423" t="s">
+      <c r="A423" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C423" t="s">
+      <c r="B423" s="3"/>
+      <c r="C423" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="424" spans="1:3">
-      <c r="A424" t="s">
+      <c r="A424" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C424" t="s">
+      <c r="B424" s="3"/>
+      <c r="C424" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="425" spans="1:3">
-      <c r="A425" t="s">
+      <c r="A425" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C425" t="s">
+      <c r="B425" s="3"/>
+      <c r="C425" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="426" spans="1:3">
-      <c r="A426" t="s">
+      <c r="A426" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C426" t="s">
+      <c r="B426" s="3"/>
+      <c r="C426" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="427" spans="1:3">
-      <c r="A427" t="s">
+      <c r="A427" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C427" t="s">
+      <c r="B427" s="3"/>
+      <c r="C427" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="428" spans="1:3">
-      <c r="A428" t="s">
+      <c r="A428" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C428" t="s">
+      <c r="B428" s="3"/>
+      <c r="C428" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="429" spans="1:3">
-      <c r="A429" t="s">
+      <c r="A429" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C429" t="s">
+      <c r="B429" s="3"/>
+      <c r="C429" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="430" spans="1:3">
-      <c r="A430" t="s">
+      <c r="A430" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C430" t="s">
+      <c r="B430" s="3"/>
+      <c r="C430" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="431" spans="1:3">
-      <c r="A431" t="s">
+      <c r="A431" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C431" t="s">
+      <c r="B431" s="3"/>
+      <c r="C431" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="432" spans="1:3">
-      <c r="A432" t="s">
+      <c r="A432" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C432" t="s">
+      <c r="B432" s="3"/>
+      <c r="C432" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="433" spans="1:3">
-      <c r="A433" t="s">
+      <c r="A433" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C433" t="s">
+      <c r="B433" s="3"/>
+      <c r="C433" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="434" spans="1:3">
-      <c r="A434" t="s">
+      <c r="A434" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C434" t="s">
+      <c r="B434" s="3"/>
+      <c r="C434" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="435" spans="1:3">
-      <c r="A435" t="s">
+      <c r="A435" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C435" t="s">
+      <c r="B435" s="3"/>
+      <c r="C435" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="436" spans="1:3">
-      <c r="A436" t="s">
+      <c r="A436" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C436" t="s">
+      <c r="B436" s="3"/>
+      <c r="C436" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="437" spans="1:3">
-      <c r="A437" t="s">
+      <c r="A437" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C437" t="s">
+      <c r="B437" s="3"/>
+      <c r="C437" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="438" spans="1:3">
-      <c r="A438" t="s">
+      <c r="A438" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C438" t="s">
+      <c r="B438" s="3"/>
+      <c r="C438" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="439" spans="1:3">
-      <c r="A439" t="s">
+      <c r="A439" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C439" t="s">
+      <c r="B439" s="3"/>
+      <c r="C439" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="440" spans="1:3">
-      <c r="A440" t="s">
+      <c r="A440" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C440" t="s">
+      <c r="B440" s="3"/>
+      <c r="C440" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="441" spans="1:3">
-      <c r="A441" t="s">
+      <c r="A441" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C441" t="s">
+      <c r="B441" s="3"/>
+      <c r="C441" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="442" spans="1:3">
-      <c r="A442" t="s">
+      <c r="A442" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C442" t="s">
+      <c r="B442" s="3"/>
+      <c r="C442" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="443" spans="1:3">
-      <c r="A443" t="s">
+      <c r="A443" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C443" t="s">
+      <c r="B443" s="3"/>
+      <c r="C443" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="444" spans="1:3">
-      <c r="A444" t="s">
+      <c r="A444" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C444" t="s">
+      <c r="B444" s="3"/>
+      <c r="C444" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="445" spans="1:3">
-      <c r="A445" t="s">
+      <c r="A445" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C445" t="s">
+      <c r="B445" s="3"/>
+      <c r="C445" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="446" spans="1:3">
-      <c r="A446" t="s">
+      <c r="A446" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C446" t="s">
+      <c r="B446" s="3"/>
+      <c r="C446" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="447" spans="1:3">
-      <c r="A447" t="s">
+      <c r="A447" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="C447" t="s">
+      <c r="B447" s="3"/>
+      <c r="C447" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="448" spans="1:3">
-      <c r="A448" t="s">
+      <c r="A448" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C448" t="s">
+      <c r="B448" s="3"/>
+      <c r="C448" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="449" spans="1:3">
-      <c r="A449" t="s">
+      <c r="A449" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C449" t="s">
+      <c r="B449" s="3"/>
+      <c r="C449" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="450" spans="1:3">
-      <c r="A450" t="s">
+      <c r="A450" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C450" t="s">
+      <c r="B450" s="3"/>
+      <c r="C450" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="451" spans="1:3">
-      <c r="A451" t="s">
+      <c r="A451" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C451" t="s">
+      <c r="B451" s="3"/>
+      <c r="C451" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="452" spans="1:3">
-      <c r="A452" t="s">
+      <c r="A452" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C452" t="s">
+      <c r="B452" s="3"/>
+      <c r="C452" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="453" spans="1:3">
-      <c r="A453" t="s">
+      <c r="A453" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C453" t="s">
+      <c r="B453" s="3"/>
+      <c r="C453" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="454" spans="1:3">
-      <c r="A454" t="s">
+      <c r="A454" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C454" t="s">
+      <c r="B454" s="3"/>
+      <c r="C454" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="455" spans="1:3">
-      <c r="A455" t="s">
+      <c r="A455" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C455" t="s">
+      <c r="B455" s="3"/>
+      <c r="C455" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="456" spans="1:3">
-      <c r="A456" t="s">
+      <c r="A456" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C456" t="s">
+      <c r="B456" s="3"/>
+      <c r="C456" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="457" spans="1:3">
-      <c r="A457" t="s">
+      <c r="A457" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C457" t="s">
+      <c r="B457" s="3"/>
+      <c r="C457" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="A458" t="s">
+      <c r="A458" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C458" t="s">
+      <c r="B458" s="3"/>
+      <c r="C458" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="459" spans="1:3">
-      <c r="A459" t="s">
+      <c r="A459" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C459" t="s">
+      <c r="B459" s="3"/>
+      <c r="C459" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="460" spans="1:3">
-      <c r="A460" t="s">
+      <c r="A460" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C460" t="s">
+      <c r="B460" s="3"/>
+      <c r="C460" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="461" spans="1:3">
-      <c r="A461" t="s">
+      <c r="A461" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C461" t="s">
+      <c r="B461" s="3"/>
+      <c r="C461" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="462" spans="1:3">
-      <c r="A462" t="s">
+      <c r="A462" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C462" t="s">
+      <c r="B462" s="3"/>
+      <c r="C462" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="463" spans="1:3">
-      <c r="A463" t="s">
+      <c r="A463" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C463" t="s">
+      <c r="B463" s="3"/>
+      <c r="C463" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="464" spans="1:3">
-      <c r="A464" t="s">
+      <c r="A464" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C464" t="s">
+      <c r="B464" s="3"/>
+      <c r="C464" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="465" spans="1:3">
-      <c r="A465" t="s">
+      <c r="A465" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C465" t="s">
+      <c r="B465" s="3"/>
+      <c r="C465" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="466" spans="1:3">
-      <c r="A466" t="s">
+      <c r="A466" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C466" t="s">
+      <c r="B466" s="3"/>
+      <c r="C466" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="467" spans="1:3">
-      <c r="A467" t="s">
+      <c r="A467" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C467" t="s">
+      <c r="B467" s="3"/>
+      <c r="C467" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="468" spans="1:3">
-      <c r="A468" t="s">
+      <c r="A468" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C468" t="s">
+      <c r="B468" s="3"/>
+      <c r="C468" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="469" spans="1:3">
-      <c r="A469" t="s">
+      <c r="A469" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C469" t="s">
+      <c r="B469" s="3"/>
+      <c r="C469" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="470" spans="1:3">
-      <c r="A470" t="s">
+      <c r="A470" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C470" t="s">
+      <c r="B470" s="3"/>
+      <c r="C470" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="471" spans="1:3">
-      <c r="A471" t="s">
+      <c r="A471" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C471" t="s">
+      <c r="B471" s="3"/>
+      <c r="C471" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="472" spans="1:3">
-      <c r="A472" t="s">
+      <c r="A472" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C472" t="s">
+      <c r="B472" s="3"/>
+      <c r="C472" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="473" spans="1:3">
-      <c r="A473" t="s">
+      <c r="A473" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C473" t="s">
+      <c r="B473" s="3"/>
+      <c r="C473" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="474" spans="1:3">
-      <c r="A474" t="s">
+      <c r="A474" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C474" t="s">
+      <c r="B474" s="3"/>
+      <c r="C474" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="475" spans="1:3">
-      <c r="A475" t="s">
+      <c r="A475" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C475" t="s">
+      <c r="B475" s="3"/>
+      <c r="C475" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="476" spans="1:3">
-      <c r="A476" t="s">
+      <c r="A476" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C476" t="s">
+      <c r="B476" s="3"/>
+      <c r="C476" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="477" spans="1:3">
-      <c r="A477" t="s">
+      <c r="A477" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C477" t="s">
+      <c r="B477" s="3"/>
+      <c r="C477" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="478" spans="1:3">
-      <c r="A478" t="s">
+      <c r="A478" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C478" t="s">
+      <c r="B478" s="3"/>
+      <c r="C478" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="479" spans="1:3">
-      <c r="A479" t="s">
+      <c r="A479" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C479" t="s">
+      <c r="B479" s="3"/>
+      <c r="C479" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="480" spans="1:3">
-      <c r="A480" t="s">
+      <c r="A480" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C480" t="s">
+      <c r="B480" s="3"/>
+      <c r="C480" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="481" spans="1:3">
-      <c r="A481" t="s">
+      <c r="A481" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C481" t="s">
+      <c r="B481" s="3"/>
+      <c r="C481" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="482" spans="1:3">
-      <c r="A482" t="s">
+      <c r="A482" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C482" t="s">
+      <c r="B482" s="3"/>
+      <c r="C482" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="483" spans="1:3">
-      <c r="A483" t="s">
+      <c r="A483" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C483" t="s">
+      <c r="B483" s="3"/>
+      <c r="C483" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="484" spans="1:3">
-      <c r="A484" t="s">
+      <c r="A484" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C484" t="s">
+      <c r="B484" s="3"/>
+      <c r="C484" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="485" spans="1:3">
-      <c r="A485" t="s">
+      <c r="A485" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C485" t="s">
+      <c r="B485" s="3"/>
+      <c r="C485" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="486" spans="1:3">
-      <c r="A486" t="s">
+      <c r="A486" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C486" t="s">
+      <c r="B486" s="3"/>
+      <c r="C486" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="487" spans="1:3">
-      <c r="A487" t="s">
+      <c r="A487" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C487" t="s">
+      <c r="B487" s="3"/>
+      <c r="C487" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="488" spans="1:3">
-      <c r="A488" t="s">
+      <c r="A488" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C488" t="s">
+      <c r="B488" s="3"/>
+      <c r="C488" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="489" spans="1:3">
-      <c r="A489" t="s">
+      <c r="A489" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C489" t="s">
+      <c r="B489" s="3"/>
+      <c r="C489" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="490" spans="1:3">
-      <c r="A490" t="s">
+      <c r="A490" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C490" t="s">
+      <c r="B490" s="3"/>
+      <c r="C490" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="491" spans="1:3">
-      <c r="A491" t="s">
+      <c r="A491" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C491" t="s">
+      <c r="B491" s="3"/>
+      <c r="C491" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="492" spans="1:3">
-      <c r="A492" t="s">
+      <c r="A492" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C492" t="s">
+      <c r="B492" s="3"/>
+      <c r="C492" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="493" spans="1:3">
-      <c r="A493" t="s">
+      <c r="A493" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C493" t="s">
+      <c r="B493" s="3"/>
+      <c r="C493" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="494" spans="1:3">
-      <c r="A494" t="s">
+      <c r="A494" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C494" t="s">
+      <c r="B494" s="3"/>
+      <c r="C494" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="495" spans="1:3">
-      <c r="A495" t="s">
+      <c r="A495" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C495" t="s">
+      <c r="B495" s="3"/>
+      <c r="C495" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="496" spans="1:3">
-      <c r="A496" t="s">
+      <c r="A496" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C496" t="s">
+      <c r="B496" s="3"/>
+      <c r="C496" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="497" spans="1:3">
-      <c r="A497" t="s">
+      <c r="A497" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C497" t="s">
+      <c r="B497" s="3"/>
+      <c r="C497" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="498" spans="1:3">
-      <c r="A498" t="s">
+      <c r="A498" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="C498" t="s">
+      <c r="B498" s="3"/>
+      <c r="C498" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="499" spans="1:3">
-      <c r="A499" t="s">
+      <c r="A499" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C499" t="s">
+      <c r="B499" s="3"/>
+      <c r="C499" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="500" spans="1:3">
-      <c r="A500" t="s">
+      <c r="A500" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C500" t="s">
+      <c r="B500" s="3"/>
+      <c r="C500" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="501" spans="1:3">
-      <c r="A501" t="s">
+      <c r="A501" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C501" t="s">
+      <c r="B501" s="3"/>
+      <c r="C501" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="502" spans="1:3">
-      <c r="A502" t="s">
+      <c r="A502" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C502" t="s">
+      <c r="B502" s="3"/>
+      <c r="C502" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="503" spans="1:3">
-      <c r="A503" t="s">
+      <c r="A503" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C503" t="s">
+      <c r="B503" s="3"/>
+      <c r="C503" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="504" spans="1:3">
-      <c r="A504" t="s">
+      <c r="A504" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C504" t="s">
+      <c r="B504" s="3"/>
+      <c r="C504" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="505" spans="1:3">
-      <c r="A505" t="s">
+      <c r="A505" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C505" t="s">
+      <c r="B505" s="3"/>
+      <c r="C505" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="506" spans="1:3">
-      <c r="A506" t="s">
+      <c r="A506" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C506" t="s">
+      <c r="B506" s="3"/>
+      <c r="C506" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="507" spans="1:3">
-      <c r="A507" t="s">
+      <c r="A507" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C507" t="s">
+      <c r="B507" s="3"/>
+      <c r="C507" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="508" spans="1:3">
-      <c r="A508" t="s">
+      <c r="A508" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C508" t="s">
+      <c r="B508" s="3"/>
+      <c r="C508" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="509" spans="1:3">
-      <c r="A509" t="s">
+      <c r="A509" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="C509" t="s">
+      <c r="B509" s="3"/>
+      <c r="C509" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="510" spans="1:3">
-      <c r="A510" t="s">
+      <c r="A510" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C510" t="s">
+      <c r="B510" s="3"/>
+      <c r="C510" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="511" spans="1:3">
-      <c r="A511" t="s">
+      <c r="A511" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C511" t="s">
+      <c r="B511" s="3"/>
+      <c r="C511" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="512" spans="1:3">
-      <c r="A512" t="s">
+      <c r="A512" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C512" t="s">
+      <c r="B512" s="3"/>
+      <c r="C512" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="513" spans="1:3">
-      <c r="A513" t="s">
+      <c r="A513" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C513" t="s">
+      <c r="B513" s="3"/>
+      <c r="C513" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="514" spans="1:3">
-      <c r="A514" t="s">
+      <c r="A514" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C514" t="s">
+      <c r="B514" s="3"/>
+      <c r="C514" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="515" spans="1:3">
-      <c r="A515" t="s">
+      <c r="A515" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C515" t="s">
+      <c r="B515" s="3"/>
+      <c r="C515" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="516" spans="1:3">
-      <c r="A516" t="s">
+      <c r="A516" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C516" t="s">
+      <c r="B516" s="3"/>
+      <c r="C516" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="517" spans="1:3">
-      <c r="A517" t="s">
+      <c r="A517" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C517" t="s">
+      <c r="B517" s="3"/>
+      <c r="C517" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="518" spans="1:3">
-      <c r="A518" t="s">
+      <c r="A518" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C518" t="s">
+      <c r="B518" s="3"/>
+      <c r="C518" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="519" spans="1:3">
-      <c r="A519" t="s">
+      <c r="A519" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C519" t="s">
+      <c r="B519" s="3"/>
+      <c r="C519" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="520" spans="1:3">
-      <c r="A520" t="s">
+      <c r="A520" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C520" t="s">
+      <c r="B520" s="3"/>
+      <c r="C520" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="521" spans="1:3">
-      <c r="A521" t="s">
+      <c r="A521" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C521" t="s">
+      <c r="B521" s="3"/>
+      <c r="C521" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="522" spans="1:3">
-      <c r="A522" t="s">
+      <c r="A522" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C522" t="s">
+      <c r="B522" s="3"/>
+      <c r="C522" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="523" spans="1:3">
-      <c r="A523" t="s">
+      <c r="A523" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C523" t="s">
+      <c r="B523" s="3"/>
+      <c r="C523" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="524" spans="1:3">
-      <c r="A524" t="s">
+      <c r="A524" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C524" t="s">
+      <c r="B524" s="3"/>
+      <c r="C524" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="525" spans="1:3">
-      <c r="A525" t="s">
+      <c r="A525" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C525" t="s">
+      <c r="B525" s="3"/>
+      <c r="C525" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="526" spans="1:3">
-      <c r="A526" t="s">
+      <c r="A526" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C526" t="s">
+      <c r="B526" s="3"/>
+      <c r="C526" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="527" spans="1:3">
-      <c r="A527" t="s">
+      <c r="A527" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C527" t="s">
+      <c r="B527" s="3"/>
+      <c r="C527" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="528" spans="1:3">
-      <c r="A528" t="s">
+      <c r="A528" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C528" t="s">
+      <c r="B528" s="3"/>
+      <c r="C528" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="529" spans="1:3">
-      <c r="A529" t="s">
+      <c r="A529" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C529" t="s">
+      <c r="B529" s="3"/>
+      <c r="C529" s="3" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D529"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>